--- a/foods.xlsx
+++ b/foods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Exercise-Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4BBC548-9B29-44F8-9217-2BDD7EBE0355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C2CE5-B163-4E5C-8DA6-710EB111F332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28100" windowHeight="15900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -820,6 +820,22 @@
   </si>
   <si>
     <t>鸡鸣汤包x6+鸡汤小馄饨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>117</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里的肉包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里的豆沙包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,24 +1167,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.9140625" style="1"/>
+    <col min="1" max="1" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1208,7 +1224,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1228,7 +1244,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1248,7 +1264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1268,7 +1284,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1288,7 +1304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1308,7 +1324,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1328,7 +1344,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1348,7 +1364,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1388,7 +1404,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1408,7 +1424,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1428,7 +1444,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1448,7 +1464,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1468,7 +1484,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1488,7 +1504,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1508,7 +1524,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1528,7 +1544,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1548,7 +1564,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1568,7 +1584,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1588,7 +1604,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1608,7 +1624,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1628,7 +1644,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1648,7 +1664,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1668,7 +1684,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1688,7 +1704,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1708,7 +1724,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1728,7 +1744,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1748,7 +1764,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1768,7 +1784,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1788,7 +1804,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>36</v>
       </c>
@@ -1808,7 +1824,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +1844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>41</v>
       </c>
@@ -1848,7 +1864,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>42</v>
       </c>
@@ -1868,7 +1884,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>44</v>
       </c>
@@ -1888,7 +1904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>46</v>
       </c>
@@ -1908,7 +1924,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>47</v>
       </c>
@@ -1928,7 +1944,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>50</v>
       </c>
@@ -1948,7 +1964,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>52</v>
       </c>
@@ -1968,7 +1984,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -1988,7 +2004,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>56</v>
       </c>
@@ -2008,7 +2024,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>58</v>
       </c>
@@ -2028,7 +2044,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
@@ -2048,7 +2064,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>61</v>
       </c>
@@ -2068,7 +2084,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>64</v>
       </c>
@@ -2088,7 +2104,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -2108,7 +2124,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>67</v>
       </c>
@@ -2128,7 +2144,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>68</v>
       </c>
@@ -2148,7 +2164,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>70</v>
       </c>
@@ -2168,7 +2184,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>71</v>
       </c>
@@ -2188,7 +2204,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
@@ -2208,7 +2224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>77</v>
       </c>
@@ -2228,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -2248,7 +2264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>82</v>
       </c>
@@ -2268,7 +2284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>84</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>86</v>
       </c>
@@ -2308,7 +2324,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>88</v>
       </c>
@@ -2328,7 +2344,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>90</v>
       </c>
@@ -2348,7 +2364,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>92</v>
       </c>
@@ -2368,7 +2384,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>94</v>
       </c>
@@ -2388,7 +2404,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>96</v>
       </c>
@@ -2408,7 +2424,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>98</v>
       </c>
@@ -2428,7 +2444,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>99</v>
       </c>
@@ -2448,7 +2464,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>102</v>
       </c>
@@ -2468,7 +2484,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>104</v>
       </c>
@@ -2488,7 +2504,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>106</v>
       </c>
@@ -2508,7 +2524,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>108</v>
       </c>
@@ -2528,7 +2544,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>110</v>
       </c>
@@ -2548,7 +2564,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>112</v>
       </c>
@@ -2568,7 +2584,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>114</v>
       </c>
@@ -2588,7 +2604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>116</v>
       </c>
@@ -2608,7 +2624,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>118</v>
       </c>
@@ -2628,7 +2644,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>120</v>
       </c>
@@ -2648,7 +2664,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>122</v>
       </c>
@@ -2668,7 +2684,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>124</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>126</v>
       </c>
@@ -2708,7 +2724,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>128</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>130</v>
       </c>
@@ -2748,7 +2764,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>132</v>
       </c>
@@ -2768,7 +2784,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>134</v>
       </c>
@@ -2788,7 +2804,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>136</v>
       </c>
@@ -2808,7 +2824,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>138</v>
       </c>
@@ -2828,7 +2844,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>140</v>
       </c>
@@ -2848,7 +2864,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>142</v>
       </c>
@@ -2868,7 +2884,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>144</v>
       </c>
@@ -2888,7 +2904,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>146</v>
       </c>
@@ -2908,7 +2924,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>148</v>
       </c>
@@ -2928,7 +2944,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>150</v>
       </c>
@@ -2948,7 +2964,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>151</v>
       </c>
@@ -2968,7 +2984,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>153</v>
       </c>
@@ -2988,7 +3004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>155</v>
       </c>
@@ -3008,7 +3024,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>158</v>
       </c>
@@ -3028,7 +3044,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>160</v>
       </c>
@@ -3048,7 +3064,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>161</v>
       </c>
@@ -3068,7 +3084,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>164</v>
       </c>
@@ -3088,7 +3104,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>166</v>
       </c>
@@ -3108,7 +3124,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>168</v>
       </c>
@@ -3128,7 +3144,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>170</v>
       </c>
@@ -3148,7 +3164,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>172</v>
       </c>
@@ -3168,7 +3184,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>174</v>
       </c>
@@ -3188,7 +3204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>176</v>
       </c>
@@ -3208,7 +3224,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>178</v>
       </c>
@@ -3228,7 +3244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>180</v>
       </c>
@@ -3248,7 +3264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>182</v>
       </c>
@@ -3268,7 +3284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>184</v>
       </c>
@@ -3288,7 +3304,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>186</v>
       </c>
@@ -3308,7 +3324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>188</v>
       </c>
@@ -3328,7 +3344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>190</v>
       </c>
@@ -3348,7 +3364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>192</v>
       </c>
@@ -3368,7 +3384,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>194</v>
       </c>
@@ -3388,7 +3404,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>196</v>
       </c>
@@ -3408,7 +3424,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>198</v>
       </c>
@@ -3428,7 +3444,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>200</v>
       </c>
@@ -3448,7 +3464,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>202</v>
       </c>
@@ -3468,7 +3484,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>204</v>
       </c>
@@ -3486,6 +3502,46 @@
       </c>
       <c r="F116" s="1">
         <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C117" s="1">
+        <v>42</v>
+      </c>
+      <c r="D117" s="1">
+        <v>10</v>
+      </c>
+      <c r="E117" s="1">
+        <v>14</v>
+      </c>
+      <c r="F117" s="1">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C118" s="1">
+        <v>60</v>
+      </c>
+      <c r="D118" s="1">
+        <v>10</v>
+      </c>
+      <c r="E118" s="1">
+        <v>2</v>
+      </c>
+      <c r="F118" s="1">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C2CE5-B163-4E5C-8DA6-710EB111F332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C36682D-70CF-4B7F-A5FE-4CA7D7A87AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E26706-7330-4D3E-8E7E-9B66A4778F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE299774-032C-4FF1-B04F-7A1DF6041663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -517,6 +517,14 @@
   </si>
   <si>
     <t>青椒肉丝浇头（80g）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粑粑柑（200g）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤爪筋一袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,26 +859,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="32.44140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="13.19921875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.86328125" style="1"/>
+    <col min="8" max="8" width="32.46484375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -890,7 +898,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f>ROW()-1</f>
         <v>1</v>
@@ -911,7 +919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f>ROW()-1</f>
         <v>2</v>
@@ -933,7 +941,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A72" si="0">ROW()-1</f>
         <v>3</v>
@@ -955,7 +963,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -977,7 +985,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -999,7 +1007,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1021,7 +1029,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1043,7 +1051,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1065,7 +1073,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1087,7 +1095,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1109,7 +1117,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1131,7 +1139,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1153,7 +1161,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1175,7 +1183,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1197,7 +1205,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1219,7 +1227,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1241,7 +1249,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1263,7 +1271,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1285,7 +1293,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1307,7 +1315,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1329,7 +1337,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1351,7 +1359,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1373,7 +1381,7 @@
       </c>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1395,7 +1403,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1420,7 +1428,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1442,7 +1450,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1463,7 +1471,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1484,7 +1492,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1505,7 +1513,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1526,7 +1534,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1547,7 +1555,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1568,7 +1576,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1589,7 +1597,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1610,7 +1618,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1631,7 +1639,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1653,7 +1661,7 @@
       </c>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1674,7 +1682,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1695,7 +1703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1716,7 +1724,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1737,7 +1745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1758,7 +1766,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1779,7 +1787,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1800,7 +1808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1821,7 +1829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1842,7 +1850,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1863,7 +1871,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1884,7 +1892,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1905,7 +1913,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1926,7 +1934,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -1947,7 +1955,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -1968,7 +1976,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -1989,7 +1997,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2010,7 +2018,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2031,7 +2039,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2052,7 +2060,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2073,7 +2081,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2094,7 +2102,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2115,7 +2123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2136,7 +2144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2157,7 +2165,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2178,7 +2186,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2199,7 +2207,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2220,7 +2228,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -2241,7 +2249,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -2262,7 +2270,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -2283,7 +2291,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -2304,7 +2312,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>67</v>
@@ -2325,7 +2333,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>68</v>
@@ -2346,7 +2354,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>69</v>
@@ -2367,7 +2375,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" si="0"/>
         <v>70</v>
@@ -2388,7 +2396,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" si="0"/>
         <v>71</v>
@@ -2409,9 +2417,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
-        <f t="shared" ref="A73:A124" si="1">ROW()-1</f>
+        <f t="shared" ref="A73:A125" si="1">ROW()-1</f>
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -2430,7 +2438,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2451,7 +2459,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2472,7 +2480,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2493,7 +2501,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2514,7 +2522,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2535,7 +2543,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2556,7 +2564,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2577,7 +2585,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2598,7 +2606,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2619,7 +2627,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2640,7 +2648,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2661,7 +2669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2682,7 +2690,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2703,7 +2711,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2724,7 +2732,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -2745,7 +2753,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2766,7 +2774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2787,7 +2795,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2808,7 +2816,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2829,7 +2837,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2850,7 +2858,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2871,7 +2879,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2892,7 +2900,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2913,7 +2921,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2934,7 +2942,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2955,7 +2963,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2976,349 +2984,349 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C100" s="1">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1">
+        <v>2</v>
+      </c>
+      <c r="F100" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A101" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C101" s="1">
         <v>0</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D101" s="1">
         <v>8</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E101" s="1">
         <v>5</v>
       </c>
-      <c r="F100" s="1">
+      <c r="F101" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B101" s="1" t="s">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A102" s="3">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C102" s="1">
         <v>4</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D102" s="1">
         <v>0</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E102" s="1">
         <v>1</v>
       </c>
-      <c r="F101" s="1">
+      <c r="F102" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="B102" s="1" t="s">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A103" s="3">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C103" s="1">
         <v>70</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D103" s="1">
         <v>6</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E103" s="1">
         <v>23</v>
       </c>
-      <c r="F102" s="1">
+      <c r="F103" s="1">
         <v>504</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="B103" s="1" t="s">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A104" s="3">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C103" s="1">
+      <c r="C104" s="1">
         <v>23</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D104" s="1">
         <v>3</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E104" s="1">
         <v>11</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F104" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <f t="shared" si="1"/>
-        <v>103</v>
-      </c>
-      <c r="B104" s="1" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A105" s="3">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C104" s="1">
+      <c r="C105" s="1">
         <v>52</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D105" s="1">
         <v>4</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E105" s="1">
         <v>10</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F105" s="1">
         <v>314</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-      <c r="B105" s="1" t="s">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A106" s="3">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C105" s="1">
-        <v>0</v>
-      </c>
-      <c r="D105" s="1">
-        <v>2</v>
-      </c>
-      <c r="E105" s="1">
-        <v>0</v>
-      </c>
-      <c r="F105" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" s="1">
         <v>0</v>
       </c>
       <c r="F106" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A107" s="3">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="B107" s="1" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A108" s="3">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C108" s="1">
         <v>2</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D108" s="1">
         <v>2</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E108" s="1">
         <v>1</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F108" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
-        <f t="shared" si="1"/>
-        <v>107</v>
-      </c>
-      <c r="B108" s="1" t="s">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A109" s="3">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C109" s="1">
         <v>5</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D109" s="1">
         <v>3</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E109" s="1">
         <v>3</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F109" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
-        <f t="shared" si="1"/>
-        <v>108</v>
-      </c>
-      <c r="B109" s="1" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A110" s="3">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C109" s="1">
-        <v>3</v>
-      </c>
-      <c r="D109" s="1">
-        <v>2</v>
-      </c>
-      <c r="E109" s="1">
-        <v>0</v>
-      </c>
-      <c r="F109" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <f t="shared" si="1"/>
-        <v>109</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C110" s="1">
         <v>3</v>
       </c>
       <c r="D110" s="1">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+      <c r="F110" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A111" s="3">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C111" s="1">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1">
         <v>7</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E111" s="1">
         <v>5</v>
       </c>
-      <c r="F110" s="1">
+      <c r="F111" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <f t="shared" si="1"/>
-        <v>110</v>
-      </c>
-      <c r="B111" s="1" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A112" s="3">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C112" s="1">
         <v>12</v>
       </c>
-      <c r="D111" s="1">
+      <c r="D112" s="1">
         <v>4</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E112" s="1">
         <v>4</v>
       </c>
-      <c r="F111" s="1">
+      <c r="F112" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-      <c r="B112" s="1" t="s">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A113" s="3">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C113" s="1">
         <v>9</v>
       </c>
-      <c r="D112" s="1">
+      <c r="D113" s="1">
         <v>0</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E113" s="1">
         <v>0</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F113" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="B113" s="1" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A114" s="3">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C114" s="1">
         <v>1</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D114" s="1">
         <v>3</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E114" s="1">
         <v>2</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F114" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <f t="shared" si="1"/>
-        <v>113</v>
-      </c>
-      <c r="B114" s="1" t="s">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="3">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C115" s="1">
         <v>2</v>
       </c>
-      <c r="D114" s="1">
+      <c r="D115" s="1">
         <v>4</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1</v>
-      </c>
-      <c r="F114" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C115" s="1">
-        <v>0</v>
-      </c>
-      <c r="D115" s="1">
-        <v>3</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
@@ -3333,121 +3341,121 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
-        <f t="shared" si="1"/>
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C119" s="1">
         <v>0</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D119" s="1">
         <v>158</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E119" s="1">
         <v>30</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F119" s="1">
         <v>915</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C120" s="1">
         <v>4</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D120" s="1">
         <v>18</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E120" s="1">
         <v>10</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F120" s="1">
         <v>180</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C121" s="1">
         <v>60</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D121" s="1">
         <v>0</v>
-      </c>
-      <c r="E120" s="1">
-        <v>0</v>
-      </c>
-      <c r="F120" s="1">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
-        <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C121" s="1">
-        <v>20</v>
-      </c>
-      <c r="D121" s="1">
-        <v>1</v>
       </c>
       <c r="E121" s="1">
         <v>0</v>
       </c>
       <c r="F121" s="1">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <f t="shared" si="1"/>
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C122" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D122" s="1">
         <v>1</v>
@@ -3456,49 +3464,90 @@
         <v>0</v>
       </c>
       <c r="F122" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C123" s="1">
+        <v>22</v>
+      </c>
+      <c r="D123" s="1">
+        <v>1</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <f t="shared" si="1"/>
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C124" s="1">
         <v>32</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D124" s="1">
         <v>4</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E124" s="1">
         <v>12</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F124" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <f t="shared" si="1"/>
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C125" s="1">
         <v>14</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D125" s="1">
         <v>1</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E125" s="1">
         <v>0</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F125" s="1">
         <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C126" s="1">
+        <v>20</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE299774-032C-4FF1-B04F-7A1DF6041663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAA3B4-2E3F-4C3E-9D22-CE2C086E35F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>董小姐豆花无骨鱼（中份，按400g计算）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>黄焖鸡米饭（小份）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -525,6 +521,34 @@
   </si>
   <si>
     <t>凤爪筋一袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食其家牛丼超值碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食其家牛丼大碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食其家牛丼巨大碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸汤羊肉米饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清蒸鲈鱼（500g鱼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮肉片（120g肉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>董小姐豆花无骨鱼（大份，400g饭150g鱼）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -859,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -943,7 +967,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A72" si="0">ROW()-1</f>
+        <f t="shared" ref="A4:A76" si="0">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -991,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>42</v>
@@ -1013,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
@@ -1123,7 +1147,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1">
         <v>75</v>
@@ -1145,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1167,7 +1191,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1299,7 +1323,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1321,7 +1345,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1">
         <v>60</v>
@@ -1387,7 +1411,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="1">
         <v>33</v>
@@ -1425,7 +1449,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -1540,19 +1564,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D31" s="1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>600</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -1561,19 +1585,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32" s="1">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F32" s="1">
-        <v>226</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1582,19 +1606,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E33" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F33" s="1">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1603,19 +1627,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C34" s="1">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D34" s="1">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E34" s="1">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1">
-        <v>358</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -1624,19 +1648,19 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C35" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E35" s="1">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F35" s="1">
-        <v>544</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -1645,19 +1669,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F36" s="1">
-        <v>514</v>
+        <v>340</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -1667,19 +1691,19 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
         <v>45</v>
-      </c>
-      <c r="C37" s="1">
-        <v>30</v>
-      </c>
-      <c r="D37" s="1">
-        <v>17</v>
-      </c>
-      <c r="E37" s="1">
-        <v>16</v>
-      </c>
-      <c r="F37" s="1">
-        <v>340</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -1688,19 +1712,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C38" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="D38" s="1">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F38" s="1">
-        <v>45</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -1709,19 +1733,19 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D39" s="1">
-        <v>14</v>
+        <v>0.4</v>
       </c>
       <c r="E39" s="1">
-        <v>6</v>
+        <v>0.2</v>
       </c>
       <c r="F39" s="1">
-        <v>270</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -1730,19 +1754,19 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D40" s="1">
-        <v>0.4</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -1751,19 +1775,19 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -1772,19 +1796,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C42" s="1">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1">
         <v>0</v>
       </c>
-      <c r="D42" s="1">
-        <v>15</v>
-      </c>
       <c r="E42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -1793,22 +1817,22 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="C43" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D43" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1940,7 +1964,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
@@ -1961,19 +1985,19 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1">
         <v>15</v>
       </c>
       <c r="E51" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F51" s="1">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -1982,19 +2006,19 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="C52" s="1">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D52" s="1">
         <v>15</v>
       </c>
       <c r="E52" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>360</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -2006,16 +2030,16 @@
         <v>117</v>
       </c>
       <c r="C53" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1">
         <v>15</v>
       </c>
       <c r="E53" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F53" s="1">
-        <v>480</v>
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -2024,10 +2048,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C54" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D54" s="1">
         <v>15</v>
@@ -2045,19 +2069,19 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C55" s="1">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="D55" s="1">
         <v>15</v>
       </c>
       <c r="E55" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F55" s="1">
-        <v>256</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -2066,19 +2090,19 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="1">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="D56" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E56" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F56" s="1">
-        <v>370</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -2087,19 +2111,19 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C57" s="1">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D57" s="1">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E57" s="1">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F57" s="1">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -2108,19 +2132,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="C58" s="1">
         <v>8</v>
       </c>
       <c r="D58" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E58" s="1">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F58" s="1">
-        <v>84</v>
+        <v>380</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -2129,19 +2153,19 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C59" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -2150,19 +2174,19 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C60" s="1">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="D60" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>600</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -2171,19 +2195,19 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C61" s="1">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="D61" s="1">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E61" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F61" s="1">
-        <v>35</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -2192,19 +2216,19 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>80</v>
+        <v>131</v>
       </c>
       <c r="C62" s="1">
         <v>70</v>
       </c>
       <c r="D62" s="1">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E62" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F62" s="1">
-        <v>550</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2213,19 +2237,19 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C63" s="1">
         <v>70</v>
       </c>
       <c r="D63" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E63" s="1">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F63" s="1">
-        <v>500</v>
+        <v>552</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -2234,19 +2258,19 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c r="C64" s="1">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D64" s="1">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E64" s="1">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="F64" s="1">
-        <v>620</v>
+        <v>920</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -2255,19 +2279,19 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1">
+        <v>2</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1">
         <v>35</v>
-      </c>
-      <c r="C65" s="1">
-        <v>60</v>
-      </c>
-      <c r="D65" s="1">
-        <v>30</v>
-      </c>
-      <c r="E65" s="1">
-        <v>20</v>
-      </c>
-      <c r="F65" s="1">
-        <v>540</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -2276,19 +2300,19 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="C66" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D66" s="1">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1">
-        <v>590</v>
+        <v>550</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -2297,19 +2321,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C67" s="1">
         <v>70</v>
       </c>
       <c r="D67" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E67" s="1">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="F67" s="1">
-        <v>630</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -2318,19 +2342,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="C68" s="1">
         <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E68" s="1">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F68" s="1">
-        <v>660</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2339,19 +2363,19 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="C69" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E69" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F69" s="1">
-        <v>450</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2360,19 +2384,19 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="C70" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E70" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F70" s="1">
-        <v>480</v>
+        <v>590</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2381,19 +2405,19 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="C71" s="1">
         <v>70</v>
       </c>
       <c r="D71" s="1">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E71" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F71" s="1">
-        <v>580</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2402,124 +2426,124 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C72" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E72" s="1">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F72" s="1">
-        <v>250</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
-        <f t="shared" ref="A73:A125" si="1">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C73" s="1">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D73" s="1">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E73" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F73" s="1">
-        <v>520</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C74" s="1">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D74" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="E74" s="1">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F74" s="1">
-        <v>1000</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C75" s="1">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D75" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E75" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F75" s="1">
-        <v>500</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="C76" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D76" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E76" s="1">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F76" s="1">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A77:A131" si="1">ROW()-1</f>
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="D77" s="1">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E77" s="1">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F77" s="1">
-        <v>478</v>
+        <v>520</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2528,19 +2552,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="D78" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E78" s="1">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F78" s="1">
-        <v>580</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2549,19 +2573,19 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C79" s="1">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D79" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E79" s="1">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="F79" s="1">
-        <v>290</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2570,19 +2594,19 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C80" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D80" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F80" s="1">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2591,19 +2615,19 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="C81" s="1">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D81" s="1">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E81" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F81" s="1">
-        <v>450</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2612,19 +2636,19 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="C82" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="E82" s="1">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F82" s="1">
-        <v>120</v>
+        <v>580</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2633,19 +2657,19 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C83" s="1">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="D83" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E83" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F83" s="1">
-        <v>126</v>
+        <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2654,19 +2678,19 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C84" s="1">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D84" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F84" s="1">
-        <v>34</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2675,19 +2699,19 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D85" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E85" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F85" s="1">
-        <v>255</v>
+        <v>450</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2696,19 +2720,19 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C86" s="1">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E86" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F86" s="1">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2717,19 +2741,19 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C87" s="1">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
+        <v>16</v>
+      </c>
+      <c r="E87" s="1">
         <v>4</v>
       </c>
-      <c r="E87" s="1">
-        <v>1</v>
-      </c>
       <c r="F87" s="1">
-        <v>180</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2738,19 +2762,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D88" s="1">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F88" s="1">
-        <v>105</v>
+        <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2759,19 +2783,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C89" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F89" s="1">
-        <v>16</v>
+        <v>255</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -2780,19 +2804,19 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C90" s="1">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="D90" s="1">
         <v>5</v>
       </c>
       <c r="E90" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" s="1">
-        <v>70</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -2801,19 +2825,19 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="C91" s="1">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D91" s="1">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E91" s="1">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F91" s="1">
-        <v>550</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -2822,19 +2846,19 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C92" s="1">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D92" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E92" s="1">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F92" s="1">
-        <v>430</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -2843,19 +2867,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C93" s="1">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D93" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F93" s="1">
-        <v>510</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -2864,19 +2888,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C94" s="1">
         <v>3</v>
       </c>
       <c r="D94" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E94" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -2885,19 +2909,19 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="C95" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D95" s="1">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E95" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F95" s="1">
-        <v>90</v>
+        <v>570</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -2906,19 +2930,19 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>25</v>
+        <v>136</v>
       </c>
       <c r="C96" s="1">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D96" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E96" s="1">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F96" s="1">
-        <v>310</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -2927,19 +2951,19 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97" s="1">
+        <v>62</v>
+      </c>
+      <c r="D97" s="1">
+        <v>11</v>
+      </c>
+      <c r="E97" s="1">
         <v>27</v>
       </c>
-      <c r="C97" s="1">
-        <v>23</v>
-      </c>
-      <c r="D97" s="1">
-        <v>16</v>
-      </c>
-      <c r="E97" s="1">
-        <v>16</v>
-      </c>
       <c r="F97" s="1">
-        <v>315</v>
+        <v>550</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
@@ -2948,19 +2972,19 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="C98" s="1">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D98" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E98" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F98" s="1">
-        <v>200</v>
+        <v>430</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -2969,19 +2993,19 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="C99" s="1">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F99" s="1">
-        <v>110</v>
+        <v>510</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -2990,19 +3014,19 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D100" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E100" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F100" s="1">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -3011,19 +3035,19 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D101" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E101" s="1">
         <v>5</v>
       </c>
       <c r="F101" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
@@ -3032,19 +3056,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C102" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D102" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E102" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F102" s="1">
-        <v>29</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
@@ -3053,19 +3077,19 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="C103" s="1">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="D103" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E103" s="1">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F103" s="1">
-        <v>504</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -3074,19 +3098,19 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C104" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D104" s="1">
         <v>3</v>
       </c>
       <c r="E104" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F104" s="1">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -3095,19 +3119,19 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="C105" s="1">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D105" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F105" s="1">
-        <v>314</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
@@ -3116,19 +3140,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>54</v>
+        <v>130</v>
       </c>
       <c r="C106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D106" s="1">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1">
         <v>2</v>
       </c>
-      <c r="E106" s="1">
-        <v>0</v>
-      </c>
       <c r="F106" s="1">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
@@ -3137,19 +3161,19 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E107" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F107" s="1">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -3158,19 +3182,19 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="C108" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D108" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E108" s="1">
         <v>1</v>
       </c>
       <c r="F108" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -3179,19 +3203,19 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C109" s="1">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D109" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E109" s="1">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="F109" s="1">
-        <v>55</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -3200,19 +3224,19 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C110" s="1">
+        <v>23</v>
+      </c>
+      <c r="D110" s="1">
         <v>3</v>
       </c>
-      <c r="D110" s="1">
-        <v>2</v>
-      </c>
       <c r="E110" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F110" s="1">
-        <v>13</v>
+        <v>210</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
@@ -3221,19 +3245,19 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D111" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E111" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F111" s="1">
-        <v>85</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -3242,19 +3266,19 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C112" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E112" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F112" s="1">
-        <v>92</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -3263,19 +3287,19 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C113" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D113" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="1">
         <v>0</v>
       </c>
       <c r="F113" s="1">
-        <v>36</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -3284,19 +3308,19 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C114" s="1">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1">
+        <v>2</v>
+      </c>
+      <c r="E114" s="1">
         <v>1</v>
       </c>
-      <c r="D114" s="1">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1">
-        <v>2</v>
-      </c>
       <c r="F114" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -3305,19 +3329,19 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="C115" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D115" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E115" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F115" s="1">
-        <v>32</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -3326,19 +3350,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C116" s="1">
+        <v>3</v>
+      </c>
+      <c r="D116" s="1">
+        <v>2</v>
+      </c>
+      <c r="E116" s="1">
         <v>0</v>
       </c>
-      <c r="D116" s="1">
-        <v>3</v>
-      </c>
-      <c r="E116" s="1">
-        <v>1</v>
-      </c>
       <c r="F116" s="1">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
@@ -3347,19 +3371,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="C117" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D117" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E117" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F117" s="1">
-        <v>20</v>
+        <v>85</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
@@ -3368,19 +3392,19 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C118" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E118" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F118" s="1">
-        <v>13</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
@@ -3389,19 +3413,19 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C119" s="1">
+        <v>9</v>
+      </c>
+      <c r="D119" s="1">
         <v>0</v>
       </c>
-      <c r="D119" s="1">
-        <v>158</v>
-      </c>
       <c r="E119" s="1">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F119" s="1">
-        <v>915</v>
+        <v>36</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
@@ -3410,19 +3434,19 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C120" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D120" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E120" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F120" s="1">
-        <v>180</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
@@ -3431,19 +3455,19 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C121" s="1">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="D121" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E121" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" s="1">
-        <v>275</v>
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
@@ -3452,19 +3476,19 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1">
         <v>20</v>
-      </c>
-      <c r="D122" s="1">
-        <v>1</v>
-      </c>
-      <c r="E122" s="1">
-        <v>0</v>
-      </c>
-      <c r="F122" s="1">
-        <v>82</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
@@ -3473,19 +3497,19 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C123" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1">
         <v>1</v>
       </c>
-      <c r="E123" s="1">
-        <v>0</v>
-      </c>
       <c r="F123" s="1">
-        <v>93</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
@@ -3494,19 +3518,19 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="C124" s="1">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D124" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E124" s="1">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F124" s="1">
-        <v>245</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
@@ -3515,38 +3539,164 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="C125" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D125" s="1">
-        <v>1</v>
+        <v>158</v>
       </c>
       <c r="E125" s="1">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F125" s="1">
-        <v>60</v>
+        <v>915</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C126" s="1">
+        <v>4</v>
+      </c>
+      <c r="D126" s="1">
+        <v>18</v>
+      </c>
+      <c r="E126" s="1">
+        <v>10</v>
+      </c>
+      <c r="F126" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="1">
+        <v>60</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C128" s="1">
+        <v>20</v>
+      </c>
+      <c r="D128" s="1">
+        <v>1</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="3">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="1">
+        <v>22</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
+      <c r="E129" s="1">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="3">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C130" s="1">
+        <v>32</v>
+      </c>
+      <c r="D130" s="1">
+        <v>4</v>
+      </c>
+      <c r="E130" s="1">
+        <v>12</v>
+      </c>
+      <c r="F130" s="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="3">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C131" s="1">
+        <v>14</v>
+      </c>
+      <c r="D131" s="1">
+        <v>1</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
         <v>124</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C126" s="1">
+      <c r="B132" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" s="1">
         <v>20</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D132" s="1">
         <v>0</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E132" s="1">
         <v>0</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F132" s="1">
         <v>80</v>
       </c>
     </row>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEAA3B4-2E3F-4C3E-9D22-CE2C086E35F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC5B37-FC9C-4DB4-A5B1-0CF3AD70E705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="585" windowWidth="14625" windowHeight="13957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -440,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红烧鸡翅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>和味道大桶泡面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,6 +545,102 @@
   </si>
   <si>
     <t>董小姐豆花无骨鱼（大份，400g饭150g鱼）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉（瘦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉（瘦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊肉（肥瘦）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肺/牛肚/牛肾/牛心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉（肥牛）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛蹄筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪大排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪蹄筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪小排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肺/猪肚/猪肾/猪心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪蹄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪蹄膀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡翅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡肝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸭掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪血/鸭血/牛血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧鸡翅（1个）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪肉（瘦肉）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -940,7 +1032,8 @@
         <v>6</v>
       </c>
       <c r="F2" s="1">
-        <v>80</v>
+        <f>4*C2+4*D2+9*E2</f>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -961,7 +1054,8 @@
         <v>9</v>
       </c>
       <c r="F3" s="1">
-        <v>150</v>
+        <f>4*C3+4*D3+9*E3</f>
+        <v>165</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -983,7 +1077,8 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <v>230</v>
+        <f t="shared" ref="F4:F67" si="1">4*C4+4*D4+9*E4</f>
+        <v>262</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1005,7 +1100,8 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>126</v>
+        <f t="shared" si="1"/>
+        <v>121</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1015,7 +1111,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1">
         <v>42</v>
@@ -1027,6 +1123,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="1"/>
         <v>334</v>
       </c>
       <c r="G6" s="2"/>
@@ -1037,7 +1134,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
@@ -1049,7 +1146,8 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>298</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1071,7 +1169,8 @@
         <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>137</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1093,7 +1192,8 @@
         <v>14</v>
       </c>
       <c r="F9" s="1">
-        <v>380</v>
+        <f t="shared" si="1"/>
+        <v>374</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1115,7 +1215,8 @@
         <v>20</v>
       </c>
       <c r="F10" s="1">
-        <v>460</v>
+        <f t="shared" si="1"/>
+        <v>472</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -1137,7 +1238,8 @@
         <v>15</v>
       </c>
       <c r="F11" s="1">
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>303</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -1147,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1">
         <v>75</v>
@@ -1159,7 +1261,8 @@
         <v>2</v>
       </c>
       <c r="F12" s="1">
-        <v>325</v>
+        <f t="shared" si="1"/>
+        <v>370</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -1169,7 +1272,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1181,7 +1284,8 @@
         <v>8</v>
       </c>
       <c r="F13" s="1">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>148</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -1191,7 +1295,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1203,7 +1307,8 @@
         <v>5</v>
       </c>
       <c r="F14" s="1">
-        <v>98</v>
+        <f t="shared" si="1"/>
+        <v>97</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -1225,7 +1330,8 @@
         <v>24</v>
       </c>
       <c r="F15" s="1">
-        <v>480</v>
+        <f t="shared" si="1"/>
+        <v>488</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1247,7 +1353,8 @@
         <v>21</v>
       </c>
       <c r="F16" s="1">
-        <v>390</v>
+        <f t="shared" si="1"/>
+        <v>389</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -1269,7 +1376,8 @@
         <v>20</v>
       </c>
       <c r="F17" s="1">
-        <v>280</v>
+        <f t="shared" si="1"/>
+        <v>364</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -1291,7 +1399,8 @@
         <v>4</v>
       </c>
       <c r="F18" s="1">
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>52</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -1313,7 +1422,8 @@
         <v>3</v>
       </c>
       <c r="F19" s="1">
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>155</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -1323,7 +1433,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1335,6 +1445,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G20" s="2"/>
@@ -1345,7 +1456,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="1">
         <v>60</v>
@@ -1357,6 +1468,7 @@
         <v>8</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="1"/>
         <v>324</v>
       </c>
       <c r="G21" s="2"/>
@@ -1379,7 +1491,8 @@
         <v>17</v>
       </c>
       <c r="F22" s="1">
-        <v>400</v>
+        <f t="shared" si="1"/>
+        <v>401</v>
       </c>
       <c r="G22" s="2"/>
     </row>
@@ -1401,7 +1514,8 @@
         <v>24</v>
       </c>
       <c r="F23" s="1">
-        <v>470</v>
+        <f t="shared" si="1"/>
+        <v>464</v>
       </c>
       <c r="G23" s="2"/>
     </row>
@@ -1411,7 +1525,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="1">
         <v>33</v>
@@ -1423,7 +1537,8 @@
         <v>13</v>
       </c>
       <c r="F24" s="1">
-        <v>360</v>
+        <f t="shared" si="1"/>
+        <v>353</v>
       </c>
       <c r="G24" s="2"/>
     </row>
@@ -1445,11 +1560,12 @@
         <v>24</v>
       </c>
       <c r="F25" s="1">
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -1470,7 +1586,8 @@
         <v>17</v>
       </c>
       <c r="F26" s="1">
-        <v>390</v>
+        <f t="shared" si="1"/>
+        <v>381</v>
       </c>
       <c r="G26" s="2"/>
     </row>
@@ -1492,7 +1609,8 @@
         <v>14</v>
       </c>
       <c r="F27" s="1">
-        <v>340</v>
+        <f t="shared" si="1"/>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1513,7 +1631,8 @@
         <v>10</v>
       </c>
       <c r="F28" s="1">
-        <v>180</v>
+        <f t="shared" si="1"/>
+        <v>170</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -1534,7 +1653,8 @@
         <v>13</v>
       </c>
       <c r="F29" s="1">
-        <v>220</v>
+        <f t="shared" si="1"/>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -1555,7 +1675,8 @@
         <v>13</v>
       </c>
       <c r="F30" s="1">
-        <v>190</v>
+        <f t="shared" si="1"/>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
@@ -1576,7 +1697,8 @@
         <v>10</v>
       </c>
       <c r="F31" s="1">
-        <v>226</v>
+        <f t="shared" si="1"/>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
@@ -1597,7 +1719,8 @@
         <v>20</v>
       </c>
       <c r="F32" s="1">
-        <v>326</v>
+        <f t="shared" si="1"/>
+        <v>324</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1618,7 +1741,8 @@
         <v>17</v>
       </c>
       <c r="F33" s="1">
-        <v>358</v>
+        <f t="shared" si="1"/>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1639,7 +1763,8 @@
         <v>26</v>
       </c>
       <c r="F34" s="1">
-        <v>544</v>
+        <f t="shared" si="1"/>
+        <v>546</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -1648,7 +1773,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="1">
         <v>38</v>
@@ -1660,7 +1785,8 @@
         <v>22</v>
       </c>
       <c r="F35" s="1">
-        <v>514</v>
+        <f t="shared" si="1"/>
+        <v>510</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -1681,7 +1807,8 @@
         <v>16</v>
       </c>
       <c r="F36" s="1">
-        <v>340</v>
+        <f t="shared" si="1"/>
+        <v>332</v>
       </c>
       <c r="G36" s="2"/>
     </row>
@@ -1703,7 +1830,8 @@
         <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -1724,6 +1852,7 @@
         <v>6</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
     </row>
@@ -1745,7 +1874,8 @@
         <v>0.2</v>
       </c>
       <c r="F39" s="1">
-        <v>53</v>
+        <f t="shared" si="1"/>
+        <v>51.4</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -1766,6 +1896,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
@@ -1787,7 +1918,8 @@
         <v>1</v>
       </c>
       <c r="F41" s="1">
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -1808,7 +1940,8 @@
         <v>0</v>
       </c>
       <c r="F42" s="1">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -1817,7 +1950,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C43" s="1">
         <v>70</v>
@@ -1829,7 +1962,8 @@
         <v>15</v>
       </c>
       <c r="F43" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -1850,7 +1984,8 @@
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>310</v>
+        <f t="shared" si="1"/>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -1871,7 +2006,8 @@
         <v>8</v>
       </c>
       <c r="F45" s="1">
-        <v>440</v>
+        <f t="shared" si="1"/>
+        <v>400</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -1892,7 +2028,8 @@
         <v>8</v>
       </c>
       <c r="F46" s="1">
-        <v>520</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -1913,7 +2050,8 @@
         <v>15</v>
       </c>
       <c r="F47" s="1">
-        <v>530</v>
+        <f t="shared" si="1"/>
+        <v>543</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.4">
@@ -1934,7 +2072,8 @@
         <v>8</v>
       </c>
       <c r="F48" s="1">
-        <v>520</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -1955,7 +2094,8 @@
         <v>8</v>
       </c>
       <c r="F49" s="1">
-        <v>520</v>
+        <f t="shared" si="1"/>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
@@ -1976,6 +2116,7 @@
         <v>2</v>
       </c>
       <c r="F50" s="1">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
     </row>
@@ -1997,7 +2138,8 @@
         <v>15</v>
       </c>
       <c r="F51" s="1">
-        <v>510</v>
+        <f t="shared" si="1"/>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
@@ -2018,7 +2160,8 @@
         <v>5</v>
       </c>
       <c r="F52" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
@@ -2027,7 +2170,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="1">
         <v>45</v>
@@ -2039,7 +2182,8 @@
         <v>12</v>
       </c>
       <c r="F53" s="1">
-        <v>360</v>
+        <f t="shared" si="1"/>
+        <v>348</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
@@ -2048,7 +2192,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C54" s="1">
         <v>60</v>
@@ -2060,6 +2204,7 @@
         <v>20</v>
       </c>
       <c r="F54" s="1">
+        <f t="shared" si="1"/>
         <v>480</v>
       </c>
     </row>
@@ -2069,7 +2214,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C55" s="1">
         <v>70</v>
@@ -2081,7 +2226,8 @@
         <v>20</v>
       </c>
       <c r="F55" s="1">
-        <v>480</v>
+        <f t="shared" si="1"/>
+        <v>520</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
@@ -2102,7 +2248,8 @@
         <v>19</v>
       </c>
       <c r="F56" s="1">
-        <v>256</v>
+        <f t="shared" si="1"/>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
@@ -2123,7 +2270,8 @@
         <v>16</v>
       </c>
       <c r="F57" s="1">
-        <v>370</v>
+        <f t="shared" si="1"/>
+        <v>372</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
@@ -2144,7 +2292,8 @@
         <v>28</v>
       </c>
       <c r="F58" s="1">
-        <v>380</v>
+        <f t="shared" si="1"/>
+        <v>376</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
@@ -2153,7 +2302,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C59" s="1">
         <v>8</v>
@@ -2165,7 +2314,8 @@
         <v>4</v>
       </c>
       <c r="F59" s="1">
-        <v>84</v>
+        <f t="shared" si="1"/>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
@@ -2186,7 +2336,8 @@
         <v>0</v>
       </c>
       <c r="F60" s="1">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -2201,13 +2352,14 @@
         <v>70</v>
       </c>
       <c r="D61" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E61" s="1">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F61" s="1">
-        <v>475</v>
+        <f t="shared" si="1"/>
+        <v>707</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -2216,19 +2368,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C62" s="1">
         <v>70</v>
       </c>
       <c r="D62" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E62" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>670</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2237,19 +2390,20 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C63" s="1">
         <v>70</v>
       </c>
       <c r="D63" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E63" s="1">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F63" s="1">
-        <v>552</v>
+        <f t="shared" si="1"/>
+        <v>735</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -2258,19 +2412,20 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C64" s="1">
         <v>70</v>
       </c>
       <c r="D64" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E64" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F64" s="1">
-        <v>920</v>
+        <f t="shared" si="1"/>
+        <v>865</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -2291,7 +2446,8 @@
         <v>1</v>
       </c>
       <c r="F65" s="1">
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -2306,13 +2462,14 @@
         <v>70</v>
       </c>
       <c r="D66" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E66" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F66" s="1">
-        <v>550</v>
+        <f t="shared" si="1"/>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -2327,13 +2484,14 @@
         <v>70</v>
       </c>
       <c r="D67" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E67" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F67" s="1">
-        <v>500</v>
+        <f t="shared" si="1"/>
+        <v>463</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -2342,19 +2500,20 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="1">
         <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E68" s="1">
         <v>9</v>
       </c>
       <c r="F68" s="1">
-        <v>450</v>
+        <f t="shared" ref="F68:F110" si="2">4*C68+4*D68+9*E68</f>
+        <v>469</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2375,6 +2534,7 @@
         <v>20</v>
       </c>
       <c r="F69" s="1">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
     </row>
@@ -2390,13 +2550,14 @@
         <v>60</v>
       </c>
       <c r="D70" s="1">
+        <v>30</v>
+      </c>
+      <c r="E70" s="1">
         <v>20</v>
       </c>
-      <c r="E70" s="1">
-        <v>30</v>
-      </c>
       <c r="F70" s="1">
-        <v>590</v>
+        <f t="shared" si="2"/>
+        <v>540</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2411,13 +2572,14 @@
         <v>70</v>
       </c>
       <c r="D71" s="1">
+        <v>30</v>
+      </c>
+      <c r="E71" s="1">
         <v>20</v>
       </c>
-      <c r="E71" s="1">
-        <v>30</v>
-      </c>
       <c r="F71" s="1">
-        <v>630</v>
+        <f t="shared" si="2"/>
+        <v>580</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2432,13 +2594,14 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E72" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F72" s="1">
-        <v>660</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2453,13 +2616,14 @@
         <v>75</v>
       </c>
       <c r="D73" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E73" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F73" s="1">
-        <v>450</v>
+        <f t="shared" si="2"/>
+        <v>620</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2468,19 +2632,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C74" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E74" s="1">
         <v>20</v>
       </c>
       <c r="F74" s="1">
-        <v>480</v>
+        <f t="shared" si="2"/>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2501,7 +2666,8 @@
         <v>20</v>
       </c>
       <c r="F75" s="1">
-        <v>580</v>
+        <f t="shared" si="2"/>
+        <v>588</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2522,12 +2688,13 @@
         <v>25</v>
       </c>
       <c r="F76" s="1">
-        <v>250</v>
+        <f t="shared" si="2"/>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <f t="shared" ref="A77:A131" si="1">ROW()-1</f>
+        <f t="shared" ref="A77:A155" si="3">ROW()-1</f>
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2543,12 +2710,13 @@
         <v>16</v>
       </c>
       <c r="F77" s="1">
-        <v>520</v>
+        <f t="shared" si="2"/>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -2564,12 +2732,13 @@
         <v>47</v>
       </c>
       <c r="F78" s="1">
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>1007</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -2585,12 +2754,13 @@
         <v>30</v>
       </c>
       <c r="F79" s="1">
-        <v>500</v>
+        <f t="shared" si="2"/>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -2606,12 +2776,13 @@
         <v>6</v>
       </c>
       <c r="F80" s="1">
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -2627,12 +2798,13 @@
         <v>26</v>
       </c>
       <c r="F81" s="1">
-        <v>478</v>
+        <f t="shared" si="2"/>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -2648,12 +2820,13 @@
         <v>41</v>
       </c>
       <c r="F82" s="1">
-        <v>580</v>
+        <f t="shared" si="2"/>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -2669,12 +2842,13 @@
         <v>7</v>
       </c>
       <c r="F83" s="1">
-        <v>290</v>
+        <f t="shared" si="2"/>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -2690,12 +2864,13 @@
         <v>4</v>
       </c>
       <c r="F84" s="1">
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -2711,12 +2886,13 @@
         <v>13</v>
       </c>
       <c r="F85" s="1">
-        <v>450</v>
+        <f t="shared" si="2"/>
+        <v>437</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -2732,12 +2908,13 @@
         <v>14</v>
       </c>
       <c r="F86" s="1">
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>194</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -2753,12 +2930,13 @@
         <v>4</v>
       </c>
       <c r="F87" s="1">
-        <v>126</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -2774,12 +2952,13 @@
         <v>2</v>
       </c>
       <c r="F88" s="1">
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -2795,908 +2974,1459 @@
         <v>17</v>
       </c>
       <c r="F89" s="1">
-        <v>255</v>
+        <f t="shared" si="2"/>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="C90" s="1">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E90" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1">
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="C91" s="1">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E91" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F91" s="1">
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>104</v>
+        <v>138</v>
       </c>
       <c r="C92" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E92" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1">
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C93" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F93" s="1">
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E94" s="1">
         <v>4</v>
       </c>
       <c r="F94" s="1">
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1">
         <v>6</v>
       </c>
       <c r="D95" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E95" s="1">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1">
-        <v>570</v>
+        <f t="shared" si="2"/>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C96" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D96" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E96" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F96" s="1">
-        <v>180</v>
+        <f t="shared" si="2"/>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="C97" s="1">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="F97" s="1">
-        <v>550</v>
+        <f t="shared" si="2"/>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C98" s="1">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E98" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F98" s="1">
-        <v>430</v>
+        <f t="shared" si="2"/>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C99" s="1">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E99" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F99" s="1">
-        <v>510</v>
+        <f t="shared" si="2"/>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C100" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E100" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F100" s="1">
-        <v>140</v>
+        <f t="shared" si="2"/>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="C101" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E101" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F101" s="1">
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="C102" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E102" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F102" s="1">
-        <v>310</v>
+        <f t="shared" si="2"/>
+        <v>187</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1">
         <v>23</v>
       </c>
-      <c r="D103" s="1">
-        <v>16</v>
-      </c>
       <c r="E103" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F103" s="1">
-        <v>315</v>
+        <f t="shared" si="2"/>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="C104" s="1">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E104" s="1">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F104" s="1">
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C105" s="1">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="D105" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F105" s="1">
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D106" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E106" s="1">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F106" s="1">
-        <v>42</v>
+        <f t="shared" si="2"/>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E107" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F107" s="1">
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="C108" s="1">
+        <v>3</v>
+      </c>
+      <c r="D108" s="1">
+        <v>17</v>
+      </c>
+      <c r="E108" s="1">
         <v>4</v>
       </c>
-      <c r="D108" s="1">
-        <v>0</v>
-      </c>
-      <c r="E108" s="1">
-        <v>1</v>
-      </c>
       <c r="F108" s="1">
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C109" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D109" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E109" s="1">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F109" s="1">
-        <v>504</v>
+        <f t="shared" si="2"/>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="C110" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D110" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E110" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F110" s="1">
-        <v>210</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="C111" s="1">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E111" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F111" s="1">
-        <v>314</v>
+        <f>4*C111+4*D111+9*E111</f>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
       </c>
       <c r="D112" s="1">
+        <v>7</v>
+      </c>
+      <c r="E112" s="1">
         <v>2</v>
       </c>
-      <c r="E112" s="1">
-        <v>0</v>
-      </c>
       <c r="F112" s="1">
-        <v>10</v>
+        <f>4*C112+4*D112+9*E112</f>
+        <v>46</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D113" s="1">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1">
         <v>1</v>
       </c>
-      <c r="E113" s="1">
-        <v>0</v>
-      </c>
       <c r="F113" s="1">
-        <v>4</v>
+        <f t="shared" ref="F113:F155" si="4">4*C113+4*D113+9*E113</f>
+        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="C114" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D114" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114" s="1">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C115" s="1">
         <v>5</v>
       </c>
       <c r="D115" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E115" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F115" s="1">
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
       </c>
       <c r="D116" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E116" s="1">
         <v>0</v>
       </c>
       <c r="F116" s="1">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>16</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="C117" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D117" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E117" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F117" s="1">
-        <v>85</v>
+        <f t="shared" si="4"/>
+        <v>149</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C118" s="1">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D118" s="1">
-        <v>4</v>
+        <v>85</v>
       </c>
       <c r="E118" s="1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F118" s="1">
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>544</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C119" s="1">
+        <v>7</v>
+      </c>
+      <c r="D119" s="1">
+        <v>12</v>
+      </c>
+      <c r="E119" s="1">
         <v>9</v>
       </c>
-      <c r="D119" s="1">
-        <v>0</v>
-      </c>
-      <c r="E119" s="1">
-        <v>0</v>
-      </c>
       <c r="F119" s="1">
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C120" s="1">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D120" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E120" s="1">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="F120" s="1">
-        <v>33</v>
+        <f t="shared" si="4"/>
+        <v>535</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C121" s="1">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="D121" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E121" s="1">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="F121" s="1">
-        <v>32</v>
+        <f t="shared" si="4"/>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C122" s="1">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="D122" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E122" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F122" s="1">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C123" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D123" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E123" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F123" s="1">
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="C124" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D124" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E124" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F124" s="1">
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>77</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C125" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D125" s="1">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="E125" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F125" s="1">
-        <v>915</v>
+        <f t="shared" si="4"/>
+        <v>297</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="C126" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D126" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E126" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F126" s="1">
-        <v>180</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="C127" s="1">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="D127" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E127" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F127" s="1">
-        <v>275</v>
+        <f t="shared" si="4"/>
+        <v>197</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128" s="1">
         <v>43</v>
       </c>
-      <c r="C128" s="1">
-        <v>20</v>
-      </c>
       <c r="D128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E128" s="1">
         <v>0</v>
       </c>
       <c r="F128" s="1">
-        <v>82</v>
+        <f t="shared" si="4"/>
+        <v>172</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="C129" s="1">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D129" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E129" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F129" s="1">
-        <v>93</v>
+        <f t="shared" si="4"/>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>8</v>
+      </c>
+      <c r="E130" s="1">
+        <v>5</v>
+      </c>
+      <c r="F130" s="1">
+        <f t="shared" si="4"/>
         <v>77</v>
-      </c>
-      <c r="C130" s="1">
-        <v>32</v>
-      </c>
-      <c r="D130" s="1">
-        <v>4</v>
-      </c>
-      <c r="E130" s="1">
-        <v>12</v>
-      </c>
-      <c r="F130" s="1">
-        <v>245</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C131" s="1">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
         <v>1</v>
       </c>
-      <c r="E131" s="1">
-        <v>0</v>
-      </c>
       <c r="F131" s="1">
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>25</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
-        <v>124</v>
+        <f t="shared" si="3"/>
+        <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C132" s="1">
+        <v>70</v>
+      </c>
+      <c r="D132" s="1">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1">
+        <v>23</v>
+      </c>
+      <c r="F132" s="1">
+        <f t="shared" si="4"/>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C133" s="1">
+        <v>23</v>
+      </c>
+      <c r="D133" s="1">
+        <v>3</v>
+      </c>
+      <c r="E133" s="1">
+        <v>11</v>
+      </c>
+      <c r="F133" s="1">
+        <f t="shared" si="4"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C134" s="1">
+        <v>52</v>
+      </c>
+      <c r="D134" s="1">
+        <v>4</v>
+      </c>
+      <c r="E134" s="1">
+        <v>10</v>
+      </c>
+      <c r="F134" s="1">
+        <f t="shared" si="4"/>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="1">
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <v>2</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C136" s="1">
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <v>1</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+      <c r="F136" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2</v>
+      </c>
+      <c r="D137" s="1">
+        <v>2</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+      <c r="F137" s="1">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C138" s="1">
+        <v>5</v>
+      </c>
+      <c r="D138" s="1">
+        <v>3</v>
+      </c>
+      <c r="E138" s="1">
+        <v>3</v>
+      </c>
+      <c r="F138" s="1">
+        <f t="shared" si="4"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C139" s="1">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1">
+        <v>2</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="D132" s="1">
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C140" s="1">
+        <v>3</v>
+      </c>
+      <c r="D140" s="1">
+        <v>7</v>
+      </c>
+      <c r="E140" s="1">
+        <v>5</v>
+      </c>
+      <c r="F140" s="1">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="1">
+        <v>12</v>
+      </c>
+      <c r="D141" s="1">
+        <v>4</v>
+      </c>
+      <c r="E141" s="1">
+        <v>4</v>
+      </c>
+      <c r="F141" s="1">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" s="1">
+        <v>9</v>
+      </c>
+      <c r="D142" s="1">
         <v>0</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E142" s="1">
         <v>0</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F142" s="1">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>3</v>
+      </c>
+      <c r="E143" s="1">
+        <v>2</v>
+      </c>
+      <c r="F143" s="1">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2</v>
+      </c>
+      <c r="D144" s="1">
+        <v>4</v>
+      </c>
+      <c r="E144" s="1">
+        <v>1</v>
+      </c>
+      <c r="F144" s="1">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>3</v>
+      </c>
+      <c r="E145" s="1">
+        <v>1</v>
+      </c>
+      <c r="F145" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" s="1">
+        <v>0</v>
+      </c>
+      <c r="D146" s="1">
+        <v>3</v>
+      </c>
+      <c r="E146" s="1">
+        <v>1</v>
+      </c>
+      <c r="F146" s="1">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="3">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>158</v>
+      </c>
+      <c r="E148" s="1">
+        <v>30</v>
+      </c>
+      <c r="F148" s="1">
+        <f t="shared" si="4"/>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C149" s="1">
+        <v>4</v>
+      </c>
+      <c r="D149" s="1">
+        <v>18</v>
+      </c>
+      <c r="E149" s="1">
+        <v>10</v>
+      </c>
+      <c r="F149" s="1">
+        <f t="shared" si="4"/>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" s="1">
+        <v>60</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
+      </c>
+      <c r="F150" s="1">
+        <f t="shared" si="4"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A151" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C151" s="1">
+        <v>20</v>
+      </c>
+      <c r="D151" s="1">
+        <v>1</v>
+      </c>
+      <c r="E151" s="1">
+        <v>0</v>
+      </c>
+      <c r="F151" s="1">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A152" s="3">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C152" s="1">
+        <v>22</v>
+      </c>
+      <c r="D152" s="1">
+        <v>1</v>
+      </c>
+      <c r="E152" s="1">
+        <v>0</v>
+      </c>
+      <c r="F152" s="1">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A153" s="3">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C153" s="1">
+        <v>32</v>
+      </c>
+      <c r="D153" s="1">
+        <v>4</v>
+      </c>
+      <c r="E153" s="1">
+        <v>12</v>
+      </c>
+      <c r="F153" s="1">
+        <f t="shared" si="4"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A154" s="3">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C154" s="1">
+        <v>14</v>
+      </c>
+      <c r="D154" s="1">
+        <v>1</v>
+      </c>
+      <c r="E154" s="1">
+        <v>0</v>
+      </c>
+      <c r="F154" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A155" s="3">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" s="1">
+        <v>20</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
+      <c r="E155" s="1">
+        <v>0</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
     </row>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CC5B37-FC9C-4DB4-A5B1-0CF3AD70E705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E377FA5-D180-4357-BEB7-A0C3BE9F9B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="585" windowWidth="14625" windowHeight="13957" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红烧鸡腿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>米饭（200g）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -512,10 +508,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>粑粑柑（200g）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>凤爪筋一袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -641,6 +633,18 @@
   </si>
   <si>
     <t>猪肉（瘦肉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粑粑柑（320-60g）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红烧鸡腿（去皮）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武隆豆干（100g）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H155"/>
+  <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="G129" sqref="G129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1111,7 +1115,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1">
         <v>42</v>
@@ -1134,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1">
         <v>60</v>
@@ -1249,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C12" s="1">
         <v>75</v>
@@ -1272,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="1">
         <v>2</v>
@@ -1295,7 +1299,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -1433,7 +1437,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1456,7 +1460,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="1">
         <v>60</v>
@@ -1525,7 +1529,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C24" s="1">
         <v>33</v>
@@ -1565,7 +1569,7 @@
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -1751,7 +1755,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C34" s="1">
         <v>39</v>
@@ -1773,7 +1777,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="1">
         <v>38</v>
@@ -1862,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C39" s="1">
         <v>12</v>
@@ -1950,7 +1954,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" s="1">
         <v>70</v>
@@ -2104,7 +2108,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C50" s="1">
         <v>2</v>
@@ -2170,7 +2174,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C53" s="1">
         <v>45</v>
@@ -2192,7 +2196,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C54" s="1">
         <v>60</v>
@@ -2214,7 +2218,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C55" s="1">
         <v>70</v>
@@ -2280,7 +2284,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C58" s="1">
         <v>8</v>
@@ -2302,7 +2306,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1">
         <v>8</v>
@@ -2368,7 +2372,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C62" s="1">
         <v>70</v>
@@ -2390,7 +2394,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C63" s="1">
         <v>70</v>
@@ -2412,7 +2416,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C64" s="1">
         <v>70</v>
@@ -2500,7 +2504,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C68" s="1">
         <v>70</v>
@@ -2632,7 +2636,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" s="1">
         <v>70</v>
@@ -2694,7 +2698,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <f t="shared" ref="A77:A155" si="3">ROW()-1</f>
+        <f t="shared" ref="A77:A156" si="3">ROW()-1</f>
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -2962,7 +2966,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>91</v>
+        <v>160</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
@@ -2971,11 +2975,11 @@
         <v>24</v>
       </c>
       <c r="E89" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>154</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -2984,7 +2988,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
@@ -3006,7 +3010,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -3028,7 +3032,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -3050,7 +3054,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -3072,7 +3076,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C94" s="1">
         <v>2</v>
@@ -3094,7 +3098,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C95" s="1">
         <v>6</v>
@@ -3116,7 +3120,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -3138,7 +3142,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C97" s="1">
         <v>1</v>
@@ -3160,7 +3164,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" s="1">
         <v>2</v>
@@ -3182,7 +3186,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
@@ -3204,7 +3208,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C100" s="1">
         <v>1</v>
@@ -3226,7 +3230,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -3248,7 +3252,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -3270,7 +3274,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C103" s="1">
         <v>3</v>
@@ -3292,7 +3296,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -3314,7 +3318,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C105" s="1">
         <v>1</v>
@@ -3336,7 +3340,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C106" s="1">
         <v>5</v>
@@ -3358,7 +3362,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -3380,7 +3384,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" s="1">
         <v>3</v>
@@ -3402,7 +3406,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C109" s="1">
         <v>4</v>
@@ -3424,7 +3428,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C110" s="1">
         <v>20</v>
@@ -3446,7 +3450,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -3468,7 +3472,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -3490,7 +3494,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C113" s="1">
         <v>46</v>
@@ -3502,7 +3506,7 @@
         <v>1</v>
       </c>
       <c r="F113" s="1">
-        <f t="shared" ref="F113:F155" si="4">4*C113+4*D113+9*E113</f>
+        <f t="shared" ref="F113:F156" si="4">4*C113+4*D113+9*E113</f>
         <v>213</v>
       </c>
     </row>
@@ -3512,7 +3516,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C114" s="1">
         <v>39</v>
@@ -3534,7 +3538,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C115" s="1">
         <v>5</v>
@@ -3556,7 +3560,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C116" s="1">
         <v>3</v>
@@ -3578,7 +3582,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C117" s="1">
         <v>4</v>
@@ -3600,7 +3604,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C118" s="1">
         <v>6</v>
@@ -3622,7 +3626,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C119" s="1">
         <v>7</v>
@@ -3666,7 +3670,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C121" s="1">
         <v>50</v>
@@ -3688,7 +3692,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C122" s="1">
         <v>58</v>
@@ -3710,7 +3714,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C123" s="1">
         <v>3</v>
@@ -3842,20 +3846,20 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>129</v>
+        <v>161</v>
       </c>
       <c r="C129" s="1">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D129" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E129" s="1">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>356</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">
@@ -3864,20 +3868,20 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C130" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D130" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E130" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F130" s="1">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.4">
@@ -3886,20 +3890,20 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="C131" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D131" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E131" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
@@ -3908,20 +3912,20 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C132" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D132" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E132" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="4"/>
-        <v>511</v>
+        <v>25</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
@@ -3930,20 +3934,20 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C133" s="1">
+        <v>70</v>
+      </c>
+      <c r="D133" s="1">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1">
         <v>23</v>
-      </c>
-      <c r="D133" s="1">
-        <v>3</v>
-      </c>
-      <c r="E133" s="1">
-        <v>11</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>511</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -3952,20 +3956,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="C134" s="1">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D134" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E134" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="4"/>
-        <v>314</v>
+        <v>203</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
@@ -3974,20 +3978,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C135" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D135" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E135" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
@@ -3996,20 +4000,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C136" s="1">
         <v>0</v>
       </c>
       <c r="D136" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136" s="1">
         <v>0</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -4018,20 +4022,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C137" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D137" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -4040,20 +4044,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C138" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D138" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E138" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
@@ -4062,20 +4066,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C139" s="1">
+        <v>5</v>
+      </c>
+      <c r="D139" s="1">
         <v>3</v>
       </c>
-      <c r="D139" s="1">
-        <v>2</v>
-      </c>
       <c r="E139" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
@@ -4084,20 +4088,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C140" s="1">
         <v>3</v>
       </c>
       <c r="D140" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E140" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
@@ -4106,20 +4110,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C141" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D141" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E141" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
@@ -4128,20 +4132,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C142" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D142" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E142" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
@@ -4150,20 +4154,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="C143" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E143" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
@@ -4172,20 +4176,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C144" s="1">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1">
+        <v>3</v>
+      </c>
+      <c r="E144" s="1">
         <v>2</v>
-      </c>
-      <c r="D144" s="1">
-        <v>4</v>
-      </c>
-      <c r="E144" s="1">
-        <v>1</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
@@ -4194,20 +4198,20 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C145" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D145" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E145" s="1">
         <v>1</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
@@ -4216,7 +4220,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C146" s="1">
         <v>0</v>
@@ -4238,20 +4242,20 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E147" s="1">
         <v>1</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
@@ -4260,20 +4264,20 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1">
         <v>0</v>
       </c>
-      <c r="D148" s="1">
-        <v>158</v>
-      </c>
       <c r="E148" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="4"/>
-        <v>902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
@@ -4282,20 +4286,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C149" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D149" s="1">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="E149" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>902</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -4304,20 +4308,20 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C150" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E150" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
@@ -4326,20 +4330,20 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C151" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E151" s="1">
         <v>0</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>240</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
@@ -4348,7 +4352,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C152" s="1">
         <v>22</v>
@@ -4370,20 +4374,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C153" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D153" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E153" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -4392,20 +4396,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C154" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D154" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E154" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
@@ -4414,20 +4418,42 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C155" s="1">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D155" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A156" s="3">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156" s="1">
+        <v>35</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1">
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E377FA5-D180-4357-BEB7-A0C3BE9F9B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCC92E5-CFF6-43E8-A541-D25D550AAE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="G129" sqref="G129"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2359,11 +2359,11 @@
         <v>28</v>
       </c>
       <c r="E61" s="1">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
-        <v>707</v>
+        <v>581</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -2381,11 +2381,11 @@
         <v>30</v>
       </c>
       <c r="E62" s="1">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>670</v>
+        <v>598</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2403,11 +2403,11 @@
         <v>35</v>
       </c>
       <c r="E63" s="1">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
-        <v>735</v>
+        <v>663</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -2425,11 +2425,11 @@
         <v>45</v>
       </c>
       <c r="E64" s="1">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>865</v>
+        <v>757</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DCC92E5-CFF6-43E8-A541-D25D550AAE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD453DA-0C63-4CB7-93E0-2F5B2FFA4315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,7 +644,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武隆豆干（100g）</t>
+    <t>武隆豆干一袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="F129" sqref="F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3849,17 +3849,17 @@
         <v>161</v>
       </c>
       <c r="C129" s="1">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D129" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E129" s="1">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F129" s="1">
         <f t="shared" si="4"/>
-        <v>356</v>
+        <v>86</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.4">

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD453DA-0C63-4CB7-93E0-2F5B2FFA4315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA085A58-47DA-4609-852E-49AD7A8E4774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -645,6 +645,10 @@
   </si>
   <si>
     <t>武隆豆干一袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食其家牛牛双拼中碗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -979,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H156"/>
+  <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="F129" sqref="F129"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1065,7 +1069,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A76" si="0">ROW()-1</f>
+        <f t="shared" ref="A4:A77" si="0">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1081,7 +1085,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F67" si="1">4*C4+4*D4+9*E4</f>
+        <f t="shared" ref="F4:F68" si="1">4*C4+4*D4+9*E4</f>
         <v>262</v>
       </c>
       <c r="G4" s="2"/>
@@ -2353,7 +2357,7 @@
         <v>82</v>
       </c>
       <c r="C61" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D61" s="1">
         <v>28</v>
@@ -2363,7 +2367,7 @@
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
-        <v>581</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -2375,7 +2379,7 @@
         <v>128</v>
       </c>
       <c r="C62" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D62" s="1">
         <v>30</v>
@@ -2385,7 +2389,7 @@
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>598</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2438,20 +2442,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C65" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E65" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>560</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -2460,20 +2464,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C66" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D66" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>530</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -2482,20 +2486,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C67" s="1">
         <v>70</v>
       </c>
       <c r="D67" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E67" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -2504,20 +2508,20 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C68" s="1">
         <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E68" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" ref="F68:F110" si="2">4*C68+4*D68+9*E68</f>
-        <v>469</v>
+        <f t="shared" si="1"/>
+        <v>463</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2526,20 +2530,20 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C69" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E69" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="2"/>
-        <v>540</v>
+        <f t="shared" ref="F69:F111" si="2">4*C69+4*D69+9*E69</f>
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2548,7 +2552,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C70" s="1">
         <v>60</v>
@@ -2570,10 +2574,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C71" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D71" s="1">
         <v>30</v>
@@ -2583,7 +2587,7 @@
       </c>
       <c r="F71" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>540</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2592,20 +2596,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C72" s="1">
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E72" s="1">
         <v>20</v>
       </c>
       <c r="F72" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2614,10 +2618,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C73" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D73" s="1">
         <v>35</v>
@@ -2627,7 +2631,7 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2636,20 +2640,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C74" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D74" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E74" s="1">
         <v>20</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2658,20 +2662,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C75" s="1">
         <v>70</v>
       </c>
       <c r="D75" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E75" s="1">
         <v>20</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="2"/>
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2680,64 +2684,64 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E76" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>588</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
-        <f t="shared" ref="A77:A156" si="3">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D77" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A78:A157" si="3">ROW()-1</f>
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D78" s="1">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E78" s="1">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="2"/>
-        <v>1007</v>
+        <v>552</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2746,20 +2750,20 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C79" s="1">
+        <v>71</v>
+      </c>
+      <c r="D79" s="1">
+        <v>75</v>
+      </c>
+      <c r="E79" s="1">
         <v>47</v>
-      </c>
-      <c r="C79" s="1">
-        <v>26</v>
-      </c>
-      <c r="D79" s="1">
-        <v>29</v>
-      </c>
-      <c r="E79" s="1">
-        <v>30</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2768,20 +2772,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C80" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D80" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E80" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2790,20 +2794,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C81" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D81" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="2"/>
-        <v>474</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2812,20 +2816,20 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C82" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D82" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E82" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="2"/>
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2834,20 +2838,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C83" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E83" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>569</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2856,20 +2860,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C84" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D84" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E84" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2878,20 +2882,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C85" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D85" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E85" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2900,20 +2904,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C86" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D86" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E86" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2922,20 +2926,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C87" s="1">
         <v>10</v>
       </c>
       <c r="D87" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E87" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2944,20 +2948,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C88" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E88" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2966,20 +2970,20 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C89" s="1">
         <v>1</v>
       </c>
       <c r="D89" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -2988,20 +2992,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E90" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -3010,7 +3014,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -3019,11 +3023,11 @@
         <v>20</v>
       </c>
       <c r="E91" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -3032,7 +3036,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -3041,11 +3045,11 @@
         <v>20</v>
       </c>
       <c r="E92" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -3054,7 +3058,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -3063,11 +3067,11 @@
         <v>20</v>
       </c>
       <c r="E93" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -3076,20 +3080,20 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D94" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E94" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -3098,20 +3102,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C95" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D95" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E95" s="1">
         <v>4</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -3120,20 +3124,20 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C96" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D96" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E96" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -3142,20 +3146,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C97" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E97" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
@@ -3164,20 +3168,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C98" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -3186,20 +3190,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
       </c>
       <c r="D99" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E99" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="2"/>
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -3208,20 +3212,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E100" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -3230,20 +3234,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E101" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
@@ -3252,20 +3256,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
       </c>
       <c r="D102" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E102" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
@@ -3274,20 +3278,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C103" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E103" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="2"/>
-        <v>257</v>
+        <v>187</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -3296,20 +3300,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D104" s="1">
+        <v>23</v>
+      </c>
+      <c r="E104" s="1">
         <v>17</v>
-      </c>
-      <c r="E104" s="1">
-        <v>30</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -3318,20 +3322,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E105" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
@@ -3340,20 +3344,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>20</v>
+      </c>
+      <c r="E106" s="1">
         <v>5</v>
-      </c>
-      <c r="D106" s="1">
-        <v>18</v>
-      </c>
-      <c r="E106" s="1">
-        <v>12</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
@@ -3362,20 +3366,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D107" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E107" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -3384,20 +3388,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C108" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E108" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -3406,20 +3410,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C109" s="1">
+        <v>3</v>
+      </c>
+      <c r="D109" s="1">
+        <v>17</v>
+      </c>
+      <c r="E109" s="1">
         <v>4</v>
-      </c>
-      <c r="D109" s="1">
-        <v>20</v>
-      </c>
-      <c r="E109" s="1">
-        <v>3</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -3428,20 +3432,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C110" s="1">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1">
         <v>20</v>
       </c>
-      <c r="D110" s="1">
-        <v>13</v>
-      </c>
       <c r="E110" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
@@ -3450,10 +3454,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C111" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D111" s="1">
         <v>13</v>
@@ -3462,8 +3466,8 @@
         <v>2</v>
       </c>
       <c r="F111" s="1">
-        <f>4*C111+4*D111+9*E111</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -3472,20 +3476,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
       </c>
       <c r="D112" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E112" s="1">
         <v>2</v>
       </c>
       <c r="F112" s="1">
         <f>4*C112+4*D112+9*E112</f>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -3494,20 +3498,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>7</v>
+      </c>
+      <c r="E113" s="1">
+        <v>2</v>
+      </c>
+      <c r="F113" s="1">
+        <f>4*C113+4*D113+9*E113</f>
         <v>46</v>
-      </c>
-      <c r="D113" s="1">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1">
-        <v>1</v>
-      </c>
-      <c r="F113" s="1">
-        <f t="shared" ref="F113:F156" si="4">4*C113+4*D113+9*E113</f>
-        <v>213</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -3516,733 +3520,733 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D114" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E114" s="1">
         <v>1</v>
       </c>
       <c r="F114" s="1">
+        <f t="shared" ref="F114:F157" si="4">4*C114+4*D114+9*E114</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A115" s="3">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C115" s="1">
+        <v>39</v>
+      </c>
+      <c r="D115" s="1">
+        <v>4</v>
+      </c>
+      <c r="E115" s="1">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A115" s="3">
-        <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-      <c r="B115" s="1" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="3">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C116" s="1">
         <v>5</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D116" s="1">
         <v>10</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E116" s="1">
         <v>5</v>
       </c>
-      <c r="F115" s="1">
+      <c r="F116" s="1">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="3">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="3">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C117" s="1">
         <v>3</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D117" s="1">
         <v>1</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E117" s="1">
         <v>0</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F117" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="3">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C118" s="1">
         <v>4</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D118" s="1">
         <v>13</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E118" s="1">
         <v>9</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F118" s="1">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C119" s="1">
         <v>6</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D119" s="1">
         <v>85</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E119" s="1">
         <v>20</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F119" s="1">
         <f t="shared" si="4"/>
         <v>544</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C120" s="1">
         <v>7</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D120" s="1">
         <v>12</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E120" s="1">
         <v>9</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F120" s="1">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C121" s="1">
         <v>62</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D121" s="1">
         <v>11</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E121" s="1">
         <v>27</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F121" s="1">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="3">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C122" s="1">
         <v>50</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D122" s="1">
         <v>8</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E122" s="1">
         <v>22</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F122" s="1">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C123" s="1">
         <v>58</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D123" s="1">
         <v>10</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E123" s="1">
         <v>25</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F123" s="1">
         <f t="shared" si="4"/>
         <v>497</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C124" s="1">
         <v>3</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D124" s="1">
         <v>10</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E124" s="1">
         <v>10</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F124" s="1">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C125" s="1">
         <v>3</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D125" s="1">
         <v>5</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E125" s="1">
         <v>5</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F125" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C126" s="1">
         <v>23</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D126" s="1">
         <v>13</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E126" s="1">
         <v>17</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F126" s="1">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C127" s="1">
         <v>23</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D127" s="1">
         <v>16</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E127" s="1">
         <v>16</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F127" s="1">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C128" s="1">
         <v>26</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D128" s="1">
         <v>3</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E128" s="1">
         <v>9</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F128" s="1">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="3">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C129" s="1">
         <v>43</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D129" s="1">
         <v>0</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E129" s="1">
         <v>0</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F129" s="1">
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="3">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="3">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C130" s="1">
         <v>6</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D130" s="1">
         <v>2</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E130" s="1">
         <v>6</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F130" s="1">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="3">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="3">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C131" s="1">
         <v>1</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D131" s="1">
         <v>5</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E131" s="1">
         <v>2</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F131" s="1">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C132" s="1">
         <v>0</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D132" s="1">
         <v>8</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E132" s="1">
         <v>5</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F132" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C133" s="1">
         <v>4</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D133" s="1">
         <v>0</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F133" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C134" s="1">
         <v>70</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D134" s="1">
         <v>6</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E134" s="1">
         <v>23</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F134" s="1">
         <f t="shared" si="4"/>
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C135" s="1">
         <v>23</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D135" s="1">
         <v>3</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E135" s="1">
         <v>11</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F135" s="1">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C136" s="1">
         <v>52</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D136" s="1">
         <v>4</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E136" s="1">
         <v>10</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F136" s="1">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C137" s="1">
         <v>0</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D137" s="1">
         <v>2</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E137" s="1">
         <v>0</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F137" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C138" s="1">
         <v>0</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D138" s="1">
         <v>1</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E138" s="1">
         <v>0</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F138" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
-        <f t="shared" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C139" s="1">
         <v>2</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D139" s="1">
         <v>2</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E139" s="1">
         <v>1</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F139" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C140" s="1">
         <v>5</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D140" s="1">
         <v>3</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E140" s="1">
         <v>3</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F140" s="1">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C141" s="1">
         <v>3</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D141" s="1">
         <v>2</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E141" s="1">
         <v>0</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F141" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C142" s="1">
         <v>3</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D142" s="1">
         <v>7</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E142" s="1">
         <v>5</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F142" s="1">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C143" s="1">
         <v>12</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D143" s="1">
         <v>4</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E143" s="1">
         <v>4</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F143" s="1">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
-        <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C144" s="1">
         <v>9</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D144" s="1">
         <v>0</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E144" s="1">
         <v>0</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F144" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="3">
-        <f t="shared" si="3"/>
-        <v>143</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C145" s="1">
         <v>1</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D145" s="1">
         <v>3</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E145" s="1">
         <v>2</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F145" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="3">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C146" s="1">
         <v>2</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D146" s="1">
         <v>4</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E146" s="1">
         <v>1</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F146" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="3">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C146" s="1">
-        <v>0</v>
-      </c>
-      <c r="D146" s="1">
-        <v>3</v>
-      </c>
-      <c r="E146" s="1">
-        <v>1</v>
-      </c>
-      <c r="F146" s="1">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="3">
         <f t="shared" si="3"/>
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C147" s="1">
         <v>0</v>
@@ -4264,20 +4268,20 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
@@ -4286,20 +4290,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1">
         <v>0</v>
       </c>
-      <c r="D149" s="1">
-        <v>158</v>
-      </c>
       <c r="E149" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="4"/>
-        <v>902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -4308,20 +4312,20 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C150" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D150" s="1">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="E150" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>902</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
@@ -4330,20 +4334,20 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C151" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D151" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E151" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
@@ -4352,20 +4356,20 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C152" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E152" s="1">
         <v>0</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -4374,7 +4378,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C153" s="1">
         <v>22</v>
@@ -4396,20 +4400,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C154" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D154" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E154" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
@@ -4418,20 +4422,20 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C155" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D155" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E155" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -4440,18 +4444,40 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C156" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D156" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E156" s="1">
         <v>0</v>
       </c>
       <c r="F156" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A157" s="3">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C157" s="1">
+        <v>35</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
+      <c r="E157" s="1">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA085A58-47DA-4609-852E-49AD7A8E4774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D00AE7-447F-4E05-A8FF-5363B8EA8D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -649,6 +660,10 @@
   </si>
   <si>
     <t>食其家牛牛双拼中碗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大份猪肚鸡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -983,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H157"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1069,7 +1084,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A77" si="0">ROW()-1</f>
+        <f t="shared" ref="A4:A78" si="0">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1085,7 +1100,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F68" si="1">4*C4+4*D4+9*E4</f>
+        <f t="shared" ref="F4:F69" si="1">4*C4+4*D4+9*E4</f>
         <v>262</v>
       </c>
       <c r="G4" s="2"/>
@@ -2530,20 +2545,20 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C69" s="1">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D69" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E69" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" ref="F69:F111" si="2">4*C69+4*D69+9*E69</f>
-        <v>469</v>
+        <f t="shared" si="1"/>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2552,20 +2567,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C70" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E70" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="2"/>
-        <v>540</v>
+        <f t="shared" ref="F70:F112" si="2">4*C70+4*D70+9*E70</f>
+        <v>469</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2574,7 +2589,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C71" s="1">
         <v>60</v>
@@ -2596,10 +2611,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C72" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D72" s="1">
         <v>30</v>
@@ -2609,7 +2624,7 @@
       </c>
       <c r="F72" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2618,20 +2633,20 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C73" s="1">
         <v>70</v>
       </c>
       <c r="D73" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E73" s="1">
         <v>20</v>
       </c>
       <c r="F73" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2640,10 +2655,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C74" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D74" s="1">
         <v>35</v>
@@ -2653,7 +2668,7 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2662,20 +2677,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C75" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D75" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E75" s="1">
         <v>20</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2684,20 +2699,20 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C76" s="1">
         <v>70</v>
       </c>
       <c r="D76" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E76" s="1">
         <v>20</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="2"/>
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2706,64 +2721,64 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D77" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E77" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>588</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
-        <f t="shared" ref="A78:A157" si="3">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C78" s="1">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D78" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E78" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A79:A158" si="3">ROW()-1</f>
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C79" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D79" s="1">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E79" s="1">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="2"/>
-        <v>1007</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
@@ -2772,20 +2787,20 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80" s="1">
+        <v>71</v>
+      </c>
+      <c r="D80" s="1">
+        <v>75</v>
+      </c>
+      <c r="E80" s="1">
         <v>47</v>
-      </c>
-      <c r="C80" s="1">
-        <v>26</v>
-      </c>
-      <c r="D80" s="1">
-        <v>29</v>
-      </c>
-      <c r="E80" s="1">
-        <v>30</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2794,20 +2809,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C81" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D81" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E81" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2816,20 +2831,20 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C82" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D82" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E82" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="2"/>
-        <v>474</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2838,20 +2853,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C83" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D83" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E83" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="2"/>
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2860,20 +2875,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C84" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E84" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>569</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2882,20 +2897,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C85" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D85" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E85" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2904,20 +2919,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C86" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D86" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E86" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2926,20 +2941,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C87" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D87" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E87" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2948,20 +2963,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="1">
         <v>10</v>
       </c>
       <c r="D88" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E88" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2970,20 +2985,20 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C89" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E89" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>140</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -2992,20 +3007,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C90" s="1">
         <v>1</v>
       </c>
       <c r="D90" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E90" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -3014,20 +3029,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E91" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -3036,7 +3051,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
@@ -3045,11 +3060,11 @@
         <v>20</v>
       </c>
       <c r="E92" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -3058,7 +3073,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -3067,11 +3082,11 @@
         <v>20</v>
       </c>
       <c r="E93" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -3080,7 +3095,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -3089,11 +3104,11 @@
         <v>20</v>
       </c>
       <c r="E94" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -3102,20 +3117,20 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D95" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E95" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -3124,20 +3139,20 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C96" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D96" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E96" s="1">
         <v>4</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -3146,20 +3161,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C97" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
@@ -3168,20 +3183,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E98" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -3190,20 +3205,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C99" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D99" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E99" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -3212,20 +3227,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1">
         <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="2"/>
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -3234,20 +3249,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E101" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
@@ -3256,20 +3271,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E102" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
@@ -3278,20 +3293,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
       </c>
       <c r="D103" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E103" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -3300,20 +3315,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C104" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E104" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="2"/>
-        <v>257</v>
+        <v>187</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -3322,20 +3337,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C105" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D105" s="1">
+        <v>23</v>
+      </c>
+      <c r="E105" s="1">
         <v>17</v>
-      </c>
-      <c r="E105" s="1">
-        <v>30</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
@@ -3344,20 +3359,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E106" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>338</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
@@ -3366,20 +3381,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>20</v>
+      </c>
+      <c r="E107" s="1">
         <v>5</v>
-      </c>
-      <c r="D107" s="1">
-        <v>18</v>
-      </c>
-      <c r="E107" s="1">
-        <v>12</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -3388,20 +3403,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C108" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D108" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E108" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -3410,20 +3425,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C109" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D109" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E109" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -3432,20 +3447,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C110" s="1">
+        <v>3</v>
+      </c>
+      <c r="D110" s="1">
+        <v>17</v>
+      </c>
+      <c r="E110" s="1">
         <v>4</v>
-      </c>
-      <c r="D110" s="1">
-        <v>20</v>
-      </c>
-      <c r="E110" s="1">
-        <v>3</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
@@ -3454,20 +3469,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C111" s="1">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1">
         <v>20</v>
       </c>
-      <c r="D111" s="1">
-        <v>13</v>
-      </c>
       <c r="E111" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -3476,10 +3491,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C112" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D112" s="1">
         <v>13</v>
@@ -3488,8 +3503,8 @@
         <v>2</v>
       </c>
       <c r="F112" s="1">
-        <f>4*C112+4*D112+9*E112</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -3498,20 +3513,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C113" s="1">
         <v>0</v>
       </c>
       <c r="D113" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E113" s="1">
         <v>2</v>
       </c>
       <c r="F113" s="1">
         <f>4*C113+4*D113+9*E113</f>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -3520,20 +3535,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>7</v>
+      </c>
+      <c r="E114" s="1">
+        <v>2</v>
+      </c>
+      <c r="F114" s="1">
+        <f>4*C114+4*D114+9*E114</f>
         <v>46</v>
-      </c>
-      <c r="D114" s="1">
-        <v>5</v>
-      </c>
-      <c r="E114" s="1">
-        <v>1</v>
-      </c>
-      <c r="F114" s="1">
-        <f t="shared" ref="F114:F157" si="4">4*C114+4*D114+9*E114</f>
-        <v>213</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -3542,733 +3557,733 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C115" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D115" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E115" s="1">
         <v>1</v>
       </c>
       <c r="F115" s="1">
+        <f t="shared" ref="F115:F158" si="4">4*C115+4*D115+9*E115</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A116" s="3">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C116" s="1">
+        <v>39</v>
+      </c>
+      <c r="D116" s="1">
+        <v>4</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+      <c r="F116" s="1">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A116" s="3">
-        <f t="shared" si="3"/>
-        <v>115</v>
-      </c>
-      <c r="B116" s="1" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="3">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C117" s="1">
         <v>5</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D117" s="1">
         <v>10</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E117" s="1">
         <v>5</v>
       </c>
-      <c r="F116" s="1">
+      <c r="F117" s="1">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="3">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C118" s="1">
         <v>3</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D118" s="1">
         <v>1</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E118" s="1">
         <v>0</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F118" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C119" s="1">
         <v>4</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D119" s="1">
         <v>13</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E119" s="1">
         <v>9</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F119" s="1">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C120" s="1">
         <v>6</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D120" s="1">
         <v>85</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E120" s="1">
         <v>20</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F120" s="1">
         <f t="shared" si="4"/>
         <v>544</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C121" s="1">
         <v>7</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D121" s="1">
         <v>12</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E121" s="1">
         <v>9</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F121" s="1">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="3">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C122" s="1">
         <v>62</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D122" s="1">
         <v>11</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E122" s="1">
         <v>27</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F122" s="1">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C123" s="1">
         <v>50</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D123" s="1">
         <v>8</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E123" s="1">
         <v>22</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F123" s="1">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C124" s="1">
         <v>58</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D124" s="1">
         <v>10</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E124" s="1">
         <v>25</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F124" s="1">
         <f t="shared" si="4"/>
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C125" s="1">
         <v>3</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D125" s="1">
         <v>10</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E125" s="1">
         <v>10</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F125" s="1">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C126" s="1">
         <v>3</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D126" s="1">
         <v>5</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E126" s="1">
         <v>5</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F126" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C127" s="1">
         <v>23</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D127" s="1">
         <v>13</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E127" s="1">
         <v>17</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F127" s="1">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C128" s="1">
         <v>23</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D128" s="1">
         <v>16</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E128" s="1">
         <v>16</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F128" s="1">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="3">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C129" s="1">
         <v>26</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D129" s="1">
         <v>3</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E129" s="1">
         <v>9</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F129" s="1">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="3">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="3">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C130" s="1">
         <v>43</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D130" s="1">
         <v>0</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E130" s="1">
         <v>0</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F130" s="1">
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="3">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="3">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C131" s="1">
         <v>6</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D131" s="1">
         <v>2</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E131" s="1">
         <v>6</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F131" s="1">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C132" s="1">
         <v>1</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D132" s="1">
         <v>5</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E132" s="1">
         <v>2</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F132" s="1">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C133" s="1">
         <v>0</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D133" s="1">
         <v>8</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E133" s="1">
         <v>5</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F133" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C134" s="1">
         <v>4</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D134" s="1">
         <v>0</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E134" s="1">
         <v>1</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F134" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C135" s="1">
         <v>70</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D135" s="1">
         <v>6</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E135" s="1">
         <v>23</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F135" s="1">
         <f t="shared" si="4"/>
         <v>511</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C136" s="1">
         <v>23</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D136" s="1">
         <v>3</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E136" s="1">
         <v>11</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F136" s="1">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C137" s="1">
         <v>52</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D137" s="1">
         <v>4</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E137" s="1">
         <v>10</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F137" s="1">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C138" s="1">
         <v>0</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D138" s="1">
         <v>2</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E138" s="1">
         <v>0</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F138" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
-        <f t="shared" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C139" s="1">
         <v>0</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D139" s="1">
         <v>1</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E139" s="1">
         <v>0</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F139" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C140" s="1">
         <v>2</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D140" s="1">
         <v>2</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E140" s="1">
         <v>1</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F140" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C141" s="1">
         <v>5</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D141" s="1">
         <v>3</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E141" s="1">
         <v>3</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F141" s="1">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C142" s="1">
         <v>3</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D142" s="1">
         <v>2</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E142" s="1">
         <v>0</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F142" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C143" s="1">
         <v>3</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D143" s="1">
         <v>7</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E143" s="1">
         <v>5</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F143" s="1">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
-        <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C144" s="1">
         <v>12</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D144" s="1">
         <v>4</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E144" s="1">
         <v>4</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F144" s="1">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="3">
-        <f t="shared" si="3"/>
-        <v>143</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C145" s="1">
         <v>9</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D145" s="1">
         <v>0</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E145" s="1">
         <v>0</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F145" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="3">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C146" s="1">
         <v>1</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D146" s="1">
         <v>3</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E146" s="1">
         <v>2</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F146" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="3">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C147" s="1">
         <v>2</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D147" s="1">
         <v>4</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E147" s="1">
         <v>1</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F147" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="3">
-        <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C147" s="1">
-        <v>0</v>
-      </c>
-      <c r="D147" s="1">
-        <v>3</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1</v>
-      </c>
-      <c r="F147" s="1">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="3">
         <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C148" s="1">
         <v>0</v>
@@ -4290,20 +4305,20 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D149" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
       </c>
       <c r="F149" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
@@ -4312,20 +4327,20 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C150" s="1">
+        <v>1</v>
+      </c>
+      <c r="D150" s="1">
         <v>0</v>
       </c>
-      <c r="D150" s="1">
-        <v>158</v>
-      </c>
       <c r="E150" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="4"/>
-        <v>902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
@@ -4334,20 +4349,20 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C151" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D151" s="1">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="E151" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>902</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
@@ -4356,20 +4371,20 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C152" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D152" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E152" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -4378,20 +4393,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C153" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E153" s="1">
         <v>0</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -4400,7 +4415,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C154" s="1">
         <v>22</v>
@@ -4422,20 +4437,20 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C155" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D155" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E155" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -4444,20 +4459,20 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C156" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D156" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E156" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
@@ -4466,18 +4481,40 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C157" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1">
         <v>0</v>
       </c>
       <c r="F157" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A158" s="3">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C158" s="1">
+        <v>35</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1">
+        <v>0</v>
+      </c>
+      <c r="F158" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D00AE7-447F-4E05-A8FF-5363B8EA8D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBAECF6-76B4-4030-B325-B0BAD9412660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,6 +653,10 @@
   </si>
   <si>
     <t>大份猪肚鸡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阜宁大糕一袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F131" sqref="F131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2761,7 +2754,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <f t="shared" ref="A79:A158" si="3">ROW()-1</f>
+        <f t="shared" ref="A79:A159" si="3">ROW()-1</f>
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3569,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" ref="F115:F158" si="4">4*C115+4*D115+9*E115</f>
+        <f t="shared" ref="F115:F159" si="4">4*C115+4*D115+9*E115</f>
         <v>213</v>
       </c>
     </row>
@@ -3909,20 +3902,20 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C131" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D131" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F131" s="1">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.4">
@@ -3931,20 +3924,20 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="C132" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E132" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F132" s="1">
         <f t="shared" si="4"/>
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.4">
@@ -3953,20 +3946,20 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>38</v>
+        <v>127</v>
       </c>
       <c r="C133" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E133" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F133" s="1">
         <f t="shared" si="4"/>
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.4">
@@ -3975,20 +3968,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C134" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D134" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E134" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F134" s="1">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.4">
@@ -3997,20 +3990,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C135" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D135" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E135" s="1">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="F135" s="1">
         <f t="shared" si="4"/>
-        <v>511</v>
+        <v>25</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.4">
@@ -4019,20 +4012,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C136" s="1">
+        <v>70</v>
+      </c>
+      <c r="D136" s="1">
+        <v>6</v>
+      </c>
+      <c r="E136" s="1">
         <v>23</v>
-      </c>
-      <c r="D136" s="1">
-        <v>3</v>
-      </c>
-      <c r="E136" s="1">
-        <v>11</v>
       </c>
       <c r="F136" s="1">
         <f t="shared" si="4"/>
-        <v>203</v>
+        <v>511</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.4">
@@ -4041,20 +4034,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C137" s="1">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D137" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E137" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" s="1">
         <f t="shared" si="4"/>
-        <v>314</v>
+        <v>203</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.4">
@@ -4063,20 +4056,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="C138" s="1">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D138" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E138" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F138" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.4">
@@ -4085,20 +4078,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C139" s="1">
         <v>0</v>
       </c>
       <c r="D139" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139" s="1">
         <v>0</v>
       </c>
       <c r="F139" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.4">
@@ -4107,20 +4100,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C140" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D140" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" s="1">
         <f t="shared" si="4"/>
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.4">
@@ -4129,20 +4122,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C141" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D141" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E141" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F141" s="1">
         <f t="shared" si="4"/>
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.4">
@@ -4151,20 +4144,20 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C142" s="1">
+        <v>5</v>
+      </c>
+      <c r="D142" s="1">
         <v>3</v>
       </c>
-      <c r="D142" s="1">
-        <v>2</v>
-      </c>
       <c r="E142" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F142" s="1">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.4">
@@ -4173,20 +4166,20 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C143" s="1">
         <v>3</v>
       </c>
       <c r="D143" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E143" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F143" s="1">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.4">
@@ -4195,20 +4188,20 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C144" s="1">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D144" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E144" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F144" s="1">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.4">
@@ -4217,20 +4210,20 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C145" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D145" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E145" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F145" s="1">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>100</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.4">
@@ -4239,20 +4232,20 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="C146" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D146" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E146" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F146" s="1">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.4">
@@ -4261,20 +4254,20 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>3</v>
+      </c>
+      <c r="E147" s="1">
         <v>2</v>
-      </c>
-      <c r="D147" s="1">
-        <v>4</v>
-      </c>
-      <c r="E147" s="1">
-        <v>1</v>
       </c>
       <c r="F147" s="1">
         <f t="shared" si="4"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.4">
@@ -4283,20 +4276,20 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C148" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E148" s="1">
         <v>1</v>
       </c>
       <c r="F148" s="1">
         <f t="shared" si="4"/>
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.4">
@@ -4305,7 +4298,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C149" s="1">
         <v>0</v>
@@ -4327,20 +4320,20 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D150" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E150" s="1">
         <v>1</v>
       </c>
       <c r="F150" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
@@ -4349,20 +4342,20 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C151" s="1">
+        <v>1</v>
+      </c>
+      <c r="D151" s="1">
         <v>0</v>
       </c>
-      <c r="D151" s="1">
-        <v>158</v>
-      </c>
       <c r="E151" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="4"/>
-        <v>902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
@@ -4371,20 +4364,20 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C152" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="E152" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>902</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -4393,20 +4386,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C153" s="1">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="D153" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E153" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>178</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -4415,20 +4408,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C154" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E154" s="1">
         <v>0</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
@@ -4437,7 +4430,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C155" s="1">
         <v>22</v>
@@ -4459,20 +4452,20 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C156" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D156" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E156" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
@@ -4481,20 +4474,20 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C157" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D157" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E157" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
@@ -4503,18 +4496,40 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C158" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D158" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1">
         <v>0</v>
       </c>
       <c r="F158" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A159" s="3">
+        <f t="shared" si="3"/>
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C159" s="1">
+        <v>35</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
+      <c r="E159" s="1">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBAECF6-76B4-4030-B325-B0BAD9412660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A9787-96F6-41CD-857B-83135EA57DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -657,6 +657,10 @@
   </si>
   <si>
     <t>阜宁大糕一袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰鲜柠檬水</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -991,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="F131" sqref="F131"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="F154" sqref="F154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2754,7 +2758,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <f t="shared" ref="A79:A159" si="3">ROW()-1</f>
+        <f t="shared" ref="A79:A160" si="3">ROW()-1</f>
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -3562,7 +3566,7 @@
         <v>1</v>
       </c>
       <c r="F115" s="1">
-        <f t="shared" ref="F115:F159" si="4">4*C115+4*D115+9*E115</f>
+        <f t="shared" ref="F115:F160" si="4">4*C115+4*D115+9*E115</f>
         <v>213</v>
       </c>
     </row>
@@ -4408,10 +4412,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C154" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D154" s="1">
         <v>0</v>
@@ -4421,7 +4425,7 @@
       </c>
       <c r="F154" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
@@ -4430,20 +4434,20 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C155" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E155" s="1">
         <v>0</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -4452,7 +4456,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C156" s="1">
         <v>22</v>
@@ -4474,20 +4478,20 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C157" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D157" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E157" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
@@ -4496,20 +4500,20 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C158" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D158" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E158" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
@@ -4518,18 +4522,40 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C159" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D159" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E159" s="1">
         <v>0</v>
       </c>
       <c r="F159" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A160" s="3">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C160" s="1">
+        <v>35</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1">
+        <v>0</v>
+      </c>
+      <c r="F160" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9A9787-96F6-41CD-857B-83135EA57DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897AAD6-50B5-4838-A1B1-4312F77A3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="885" windowWidth="18967" windowHeight="13493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,6 +661,10 @@
   </si>
   <si>
     <t>冰鲜柠檬水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆江猪脚饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -995,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="F154" sqref="F154"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1081,7 +1085,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A78" si="0">ROW()-1</f>
+        <f t="shared" ref="A4:A79" si="0">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1097,7 +1101,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F69" si="1">4*C4+4*D4+9*E4</f>
+        <f t="shared" ref="F4:F70" si="1">4*C4+4*D4+9*E4</f>
         <v>262</v>
       </c>
       <c r="G4" s="2"/>
@@ -2542,20 +2546,20 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C69" s="1">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E69" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2564,20 +2568,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C70" s="1">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D70" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E70" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" ref="F70:F112" si="2">4*C70+4*D70+9*E70</f>
-        <v>469</v>
+        <f t="shared" si="1"/>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2586,20 +2590,20 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D71" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E71" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="2"/>
-        <v>540</v>
+        <f t="shared" ref="F71:F113" si="2">4*C71+4*D71+9*E71</f>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2608,7 +2612,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C72" s="1">
         <v>60</v>
@@ -2630,10 +2634,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C73" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1">
         <v>30</v>
@@ -2643,7 +2647,7 @@
       </c>
       <c r="F73" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>540</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
@@ -2652,20 +2656,20 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C74" s="1">
         <v>70</v>
       </c>
       <c r="D74" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E74" s="1">
         <v>20</v>
       </c>
       <c r="F74" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2674,10 +2678,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D75" s="1">
         <v>35</v>
@@ -2687,7 +2691,7 @@
       </c>
       <c r="F75" s="1">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2696,20 +2700,20 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C76" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D76" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E76" s="1">
         <v>20</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2718,20 +2722,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C77" s="1">
         <v>70</v>
       </c>
       <c r="D77" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E77" s="1">
         <v>20</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="2"/>
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2740,64 +2744,64 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D78" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E78" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>588</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
-        <f t="shared" ref="A79:A160" si="3">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D79" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E79" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A80:A161" si="3">ROW()-1</f>
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C80" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D80" s="1">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E80" s="1">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="2"/>
-        <v>1007</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
@@ -2806,20 +2810,20 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" s="1">
+        <v>71</v>
+      </c>
+      <c r="D81" s="1">
+        <v>75</v>
+      </c>
+      <c r="E81" s="1">
         <v>47</v>
-      </c>
-      <c r="C81" s="1">
-        <v>26</v>
-      </c>
-      <c r="D81" s="1">
-        <v>29</v>
-      </c>
-      <c r="E81" s="1">
-        <v>30</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2828,20 +2832,20 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C82" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D82" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E82" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2850,20 +2854,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C83" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D83" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="2"/>
-        <v>474</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2872,20 +2876,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C84" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D84" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E84" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="2"/>
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2894,20 +2898,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C85" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E85" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>569</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2916,20 +2920,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C86" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D86" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E86" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2938,20 +2942,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C87" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D87" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E87" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2960,20 +2964,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C88" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D88" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E88" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>437</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2982,20 +2986,20 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1">
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E89" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -3004,20 +3008,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C90" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D90" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E90" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -3026,20 +3030,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
       </c>
       <c r="D91" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E91" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -3048,20 +3052,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E92" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -3070,7 +3074,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -3079,11 +3083,11 @@
         <v>20</v>
       </c>
       <c r="E93" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -3092,7 +3096,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -3101,11 +3105,11 @@
         <v>20</v>
       </c>
       <c r="E94" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -3114,7 +3118,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -3123,11 +3127,11 @@
         <v>20</v>
       </c>
       <c r="E95" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -3136,20 +3140,20 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C96" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D96" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E96" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -3158,20 +3162,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C97" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E97" s="1">
         <v>4</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
@@ -3180,20 +3184,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C98" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D98" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E98" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -3202,20 +3206,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E99" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -3224,20 +3228,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C100" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E100" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -3246,20 +3250,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C101" s="1">
         <v>2</v>
       </c>
       <c r="D101" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="2"/>
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
@@ -3268,20 +3272,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E102" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
@@ -3290,20 +3294,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E103" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -3312,20 +3316,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
       </c>
       <c r="D104" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E104" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -3334,20 +3338,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C105" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E105" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="2"/>
-        <v>257</v>
+        <v>187</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
@@ -3356,20 +3360,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D106" s="1">
+        <v>23</v>
+      </c>
+      <c r="E106" s="1">
         <v>17</v>
-      </c>
-      <c r="E106" s="1">
-        <v>30</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
@@ -3378,20 +3382,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D107" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E107" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -3400,20 +3404,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>20</v>
+      </c>
+      <c r="E108" s="1">
         <v>5</v>
-      </c>
-      <c r="D108" s="1">
-        <v>18</v>
-      </c>
-      <c r="E108" s="1">
-        <v>12</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -3422,20 +3426,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C109" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D109" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E109" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -3444,20 +3448,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C110" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D110" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E110" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
@@ -3466,20 +3470,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C111" s="1">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1">
+        <v>17</v>
+      </c>
+      <c r="E111" s="1">
         <v>4</v>
-      </c>
-      <c r="D111" s="1">
-        <v>20</v>
-      </c>
-      <c r="E111" s="1">
-        <v>3</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -3488,20 +3492,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C112" s="1">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1">
         <v>20</v>
       </c>
-      <c r="D112" s="1">
-        <v>13</v>
-      </c>
       <c r="E112" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -3510,10 +3514,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C113" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D113" s="1">
         <v>13</v>
@@ -3522,8 +3526,8 @@
         <v>2</v>
       </c>
       <c r="F113" s="1">
-        <f>4*C113+4*D113+9*E113</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -3532,20 +3536,20 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C114" s="1">
         <v>0</v>
       </c>
       <c r="D114" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1">
         <v>2</v>
       </c>
       <c r="F114" s="1">
         <f>4*C114+4*D114+9*E114</f>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -3554,20 +3558,20 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>7</v>
+      </c>
+      <c r="E115" s="1">
+        <v>2</v>
+      </c>
+      <c r="F115" s="1">
+        <f>4*C115+4*D115+9*E115</f>
         <v>46</v>
-      </c>
-      <c r="D115" s="1">
-        <v>5</v>
-      </c>
-      <c r="E115" s="1">
-        <v>1</v>
-      </c>
-      <c r="F115" s="1">
-        <f t="shared" ref="F115:F160" si="4">4*C115+4*D115+9*E115</f>
-        <v>213</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -3576,755 +3580,755 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C116" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D116" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116" s="1">
         <v>1</v>
       </c>
       <c r="F116" s="1">
+        <f t="shared" ref="F116:F161" si="4">4*C116+4*D116+9*E116</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A117" s="3">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117" s="1">
+        <v>39</v>
+      </c>
+      <c r="D117" s="1">
+        <v>4</v>
+      </c>
+      <c r="E117" s="1">
+        <v>1</v>
+      </c>
+      <c r="F117" s="1">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A117" s="3">
-        <f t="shared" si="3"/>
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C118" s="1">
         <v>5</v>
       </c>
-      <c r="D117" s="1">
+      <c r="D118" s="1">
         <v>10</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E118" s="1">
         <v>5</v>
       </c>
-      <c r="F117" s="1">
+      <c r="F118" s="1">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C119" s="1">
         <v>3</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D119" s="1">
         <v>1</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E119" s="1">
         <v>0</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F119" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C120" s="1">
         <v>4</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D120" s="1">
         <v>13</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E120" s="1">
         <v>9</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F120" s="1">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C121" s="1">
         <v>6</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D121" s="1">
         <v>85</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E121" s="1">
         <v>20</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F121" s="1">
         <f t="shared" si="4"/>
         <v>544</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="3">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C122" s="1">
         <v>7</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D122" s="1">
         <v>12</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E122" s="1">
         <v>9</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F122" s="1">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C123" s="1">
         <v>62</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D123" s="1">
         <v>11</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E123" s="1">
         <v>27</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F123" s="1">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C124" s="1">
         <v>50</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D124" s="1">
         <v>8</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E124" s="1">
         <v>22</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F124" s="1">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C125" s="1">
         <v>58</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D125" s="1">
         <v>10</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E125" s="1">
         <v>25</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F125" s="1">
         <f t="shared" si="4"/>
         <v>497</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C126" s="1">
         <v>3</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D126" s="1">
         <v>10</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E126" s="1">
         <v>10</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F126" s="1">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C127" s="1">
         <v>3</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D127" s="1">
         <v>5</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E127" s="1">
         <v>5</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F127" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C128" s="1">
         <v>23</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D128" s="1">
         <v>13</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E128" s="1">
         <v>17</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F128" s="1">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="3">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C129" s="1">
         <v>23</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D129" s="1">
         <v>16</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E129" s="1">
         <v>16</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F129" s="1">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="3">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="3">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C130" s="1">
         <v>26</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D130" s="1">
         <v>3</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E130" s="1">
         <v>9</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F130" s="1">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="3">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="3">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C131" s="1">
         <v>43</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D131" s="1">
         <v>0</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E131" s="1">
         <v>0</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F131" s="1">
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C132" s="1">
         <v>14</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D132" s="1">
         <v>1</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E132" s="1">
         <v>1</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F132" s="1">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C133" s="1">
         <v>6</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D133" s="1">
         <v>2</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E133" s="1">
         <v>6</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F133" s="1">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C134" s="1">
         <v>1</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D134" s="1">
         <v>5</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E134" s="1">
         <v>2</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F134" s="1">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C135" s="1">
         <v>0</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D135" s="1">
         <v>8</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E135" s="1">
         <v>5</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F135" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C136" s="1">
         <v>4</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D136" s="1">
         <v>0</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E136" s="1">
         <v>1</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F136" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C137" s="1">
         <v>70</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D137" s="1">
         <v>6</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E137" s="1">
         <v>23</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F137" s="1">
         <f t="shared" si="4"/>
         <v>511</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C138" s="1">
         <v>23</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D138" s="1">
         <v>3</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E138" s="1">
         <v>11</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F138" s="1">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
-        <f t="shared" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C139" s="1">
         <v>52</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D139" s="1">
         <v>4</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E139" s="1">
         <v>10</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F139" s="1">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C140" s="1">
         <v>0</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D140" s="1">
         <v>2</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E140" s="1">
         <v>0</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F140" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C141" s="1">
         <v>0</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D141" s="1">
         <v>1</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E141" s="1">
         <v>0</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F141" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C142" s="1">
         <v>2</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D142" s="1">
         <v>2</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E142" s="1">
         <v>1</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F142" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C143" s="1">
         <v>5</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D143" s="1">
         <v>3</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E143" s="1">
         <v>3</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F143" s="1">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
-        <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C144" s="1">
         <v>3</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D144" s="1">
         <v>2</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E144" s="1">
         <v>0</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F144" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="3">
-        <f t="shared" si="3"/>
-        <v>143</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C145" s="1">
         <v>3</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D145" s="1">
         <v>7</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E145" s="1">
         <v>5</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F145" s="1">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="3">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C146" s="1">
         <v>12</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D146" s="1">
         <v>4</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E146" s="1">
         <v>4</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F146" s="1">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="3">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C147" s="1">
         <v>9</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D147" s="1">
         <v>0</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E147" s="1">
         <v>0</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F147" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="3">
-        <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="3">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C148" s="1">
         <v>1</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D148" s="1">
         <v>3</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E148" s="1">
         <v>2</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F148" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="3">
-        <f t="shared" si="3"/>
-        <v>147</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C149" s="1">
         <v>2</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D149" s="1">
         <v>4</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E149" s="1">
         <v>1</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F149" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="3">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0</v>
-      </c>
-      <c r="D149" s="1">
-        <v>3</v>
-      </c>
-      <c r="E149" s="1">
-        <v>1</v>
-      </c>
-      <c r="F149" s="1">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="3">
         <f t="shared" si="3"/>
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C150" s="1">
         <v>0</v>
@@ -4346,20 +4350,20 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D151" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E151" s="1">
         <v>1</v>
       </c>
       <c r="F151" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.4">
@@ -4368,20 +4372,20 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C152" s="1">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1">
         <v>0</v>
       </c>
-      <c r="D152" s="1">
-        <v>158</v>
-      </c>
       <c r="E152" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="4"/>
-        <v>902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -4390,20 +4394,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C153" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D153" s="1">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="E153" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>902</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -4412,20 +4416,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C154" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D154" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E154" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
@@ -4434,10 +4438,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C155" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D155" s="1">
         <v>0</v>
@@ -4447,7 +4451,7 @@
       </c>
       <c r="F155" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -4456,20 +4460,20 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C156" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E156" s="1">
         <v>0</v>
       </c>
       <c r="F156" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
@@ -4478,7 +4482,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C157" s="1">
         <v>22</v>
@@ -4500,20 +4504,20 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C158" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D158" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E158" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F158" s="1">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.4">
@@ -4522,20 +4526,20 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C159" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D159" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E159" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
@@ -4544,18 +4548,40 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C160" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D160" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E160" s="1">
         <v>0</v>
       </c>
       <c r="F160" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A161" s="3">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C161" s="1">
+        <v>35</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>

--- a/foods.xlsx
+++ b/foods.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Fitness-Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897AAD6-50B5-4838-A1B1-4312F77A3350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBF17E1-B6A1-481E-BBAF-CD0C0F9D9C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="885" windowWidth="18967" windowHeight="13493" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="915" windowWidth="13680" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -665,6 +665,10 @@
   </si>
   <si>
     <t>隆江猪脚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>素鸡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H161"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1085,7 +1089,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A79" si="0">ROW()-1</f>
+        <f t="shared" ref="A4:A80" si="0">ROW()-1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1101,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" ref="F4:F70" si="1">4*C4+4*D4+9*E4</f>
+        <f t="shared" ref="F4:F71" si="1">4*C4+4*D4+9*E4</f>
         <v>262</v>
       </c>
       <c r="G4" s="2"/>
@@ -2348,20 +2352,20 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="C60" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
@@ -2370,20 +2374,20 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C61" s="1">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D61" s="1">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F61" s="1">
         <f t="shared" si="1"/>
-        <v>541</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
@@ -2392,20 +2396,20 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="C62" s="1">
         <v>60</v>
       </c>
       <c r="D62" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E62" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F62" s="1">
         <f t="shared" si="1"/>
-        <v>558</v>
+        <v>541</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
@@ -2414,20 +2418,20 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D63" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E63" s="1">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="1"/>
-        <v>663</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
@@ -2436,20 +2440,20 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C64" s="1">
         <v>70</v>
       </c>
       <c r="D64" s="1">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E64" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="F64" s="1">
         <f t="shared" si="1"/>
-        <v>757</v>
+        <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -2458,20 +2462,20 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C65" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D65" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E65" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F65" s="1">
         <f t="shared" si="1"/>
-        <v>560</v>
+        <v>757</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -2480,20 +2484,20 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="C66" s="1">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="D66" s="1">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="E66" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F66" s="1">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>560</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -2502,20 +2506,20 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C67" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D67" s="1">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="E67" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F67" s="1">
         <f t="shared" si="1"/>
-        <v>530</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -2524,20 +2528,20 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C68" s="1">
         <v>70</v>
       </c>
       <c r="D68" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E68" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F68" s="1">
         <f t="shared" si="1"/>
-        <v>463</v>
+        <v>530</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -2546,20 +2550,20 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="C69" s="1">
         <v>70</v>
       </c>
       <c r="D69" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E69" s="1">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="F69" s="1">
         <f t="shared" si="1"/>
-        <v>620</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
@@ -2568,20 +2572,20 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C70" s="1">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E70" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F70" s="1">
         <f t="shared" si="1"/>
-        <v>238</v>
+        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -2590,20 +2594,20 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="C71" s="1">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D71" s="1">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E71" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" ref="F71:F113" si="2">4*C71+4*D71+9*E71</f>
-        <v>469</v>
+        <f t="shared" si="1"/>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
@@ -2612,20 +2616,20 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="C72" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E72" s="1">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="2"/>
-        <v>540</v>
+        <f t="shared" ref="F72:F114" si="2">4*C72+4*D72+9*E72</f>
+        <v>469</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -2634,7 +2638,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C73" s="1">
         <v>60</v>
@@ -2656,10 +2660,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C74" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D74" s="1">
         <v>30</v>
@@ -2669,7 +2673,7 @@
       </c>
       <c r="F74" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
@@ -2678,20 +2682,20 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C75" s="1">
         <v>70</v>
       </c>
       <c r="D75" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E75" s="1">
         <v>20</v>
       </c>
       <c r="F75" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
@@ -2700,10 +2704,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C76" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D76" s="1">
         <v>35</v>
@@ -2713,7 +2717,7 @@
       </c>
       <c r="F76" s="1">
         <f t="shared" si="2"/>
-        <v>620</v>
+        <v>600</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
@@ -2722,20 +2726,20 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="C77" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E77" s="1">
         <v>20</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" si="2"/>
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
@@ -2744,20 +2748,20 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C78" s="1">
         <v>70</v>
       </c>
       <c r="D78" s="1">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E78" s="1">
         <v>20</v>
       </c>
       <c r="F78" s="1">
         <f t="shared" si="2"/>
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
@@ -2766,64 +2770,64 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="D79" s="1">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="E79" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F79" s="1">
         <f t="shared" si="2"/>
-        <v>253</v>
+        <v>588</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="3">
-        <f t="shared" ref="A80:A161" si="3">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="E80" s="1">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F80" s="1">
         <f t="shared" si="2"/>
-        <v>552</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A81:A162" si="3">ROW()-1</f>
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="C81" s="1">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D81" s="1">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E81" s="1">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F81" s="1">
         <f t="shared" si="2"/>
-        <v>1007</v>
+        <v>552</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
@@ -2832,20 +2836,20 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C82" s="1">
+        <v>71</v>
+      </c>
+      <c r="D82" s="1">
+        <v>75</v>
+      </c>
+      <c r="E82" s="1">
         <v>47</v>
-      </c>
-      <c r="C82" s="1">
-        <v>26</v>
-      </c>
-      <c r="D82" s="1">
-        <v>29</v>
-      </c>
-      <c r="E82" s="1">
-        <v>30</v>
       </c>
       <c r="F82" s="1">
         <f t="shared" si="2"/>
-        <v>490</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
@@ -2854,20 +2858,20 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C83" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D83" s="1">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="E83" s="1">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F83" s="1">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
@@ -2876,20 +2880,20 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C84" s="1">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D84" s="1">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F84" s="1">
         <f t="shared" si="2"/>
-        <v>474</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
@@ -2898,20 +2902,20 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C85" s="1">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D85" s="1">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E85" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="F85" s="1">
         <f t="shared" si="2"/>
-        <v>569</v>
+        <v>474</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
@@ -2920,20 +2924,20 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C86" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="E86" s="1">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="F86" s="1">
         <f t="shared" si="2"/>
-        <v>299</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
@@ -2942,20 +2946,20 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C87" s="1">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D87" s="1">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E87" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F87" s="1">
         <f t="shared" si="2"/>
-        <v>124</v>
+        <v>299</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
@@ -2964,20 +2968,20 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="C88" s="1">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D88" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E88" s="1">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F88" s="1">
         <f t="shared" si="2"/>
-        <v>437</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
@@ -2986,20 +2990,20 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C89" s="1">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D89" s="1">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E89" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F89" s="1">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>437</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
@@ -3008,20 +3012,20 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90" s="1">
         <v>10</v>
       </c>
       <c r="D90" s="1">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E90" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F90" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>194</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
@@ -3030,20 +3034,20 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D91" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E91" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" s="1">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
@@ -3052,20 +3056,20 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="C92" s="1">
         <v>1</v>
       </c>
       <c r="D92" s="1">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E92" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F92" s="1">
         <f t="shared" si="2"/>
-        <v>154</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
@@ -3074,20 +3078,20 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
       </c>
       <c r="D93" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E93" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F93" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
@@ -3096,7 +3100,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C94" s="1">
         <v>1</v>
@@ -3105,11 +3109,11 @@
         <v>20</v>
       </c>
       <c r="E94" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
@@ -3118,7 +3122,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C95" s="1">
         <v>1</v>
@@ -3127,11 +3131,11 @@
         <v>20</v>
       </c>
       <c r="E95" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F95" s="1">
         <f t="shared" si="2"/>
-        <v>120</v>
+        <v>219</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
@@ -3140,7 +3144,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C96" s="1">
         <v>1</v>
@@ -3149,11 +3153,11 @@
         <v>20</v>
       </c>
       <c r="E96" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F96" s="1">
         <f t="shared" si="2"/>
-        <v>219</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
@@ -3162,20 +3166,20 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C97" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D97" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E97" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F97" s="1">
         <f t="shared" si="2"/>
-        <v>108</v>
+        <v>219</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
@@ -3184,20 +3188,20 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" s="1">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
       </c>
       <c r="F98" s="1">
         <f t="shared" si="2"/>
-        <v>140</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
@@ -3206,20 +3210,20 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C99" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D99" s="1">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E99" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F99" s="1">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
@@ -3228,20 +3232,20 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="C100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D100" s="1">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E100" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F100" s="1">
         <f t="shared" si="2"/>
-        <v>156</v>
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
@@ -3250,20 +3254,20 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="C101" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E101" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F101" s="1">
         <f t="shared" si="2"/>
-        <v>260</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
@@ -3272,20 +3276,20 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C102" s="1">
         <v>2</v>
       </c>
       <c r="D102" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F102" s="1">
         <f t="shared" si="2"/>
-        <v>279</v>
+        <v>260</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
@@ -3294,20 +3298,20 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D103" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E103" s="1">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F103" s="1">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
@@ -3316,20 +3320,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D104" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="E104" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F104" s="1">
         <f t="shared" si="2"/>
-        <v>158</v>
+        <v>96</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
@@ -3338,20 +3342,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
       </c>
       <c r="D105" s="1">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E105" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="F105" s="1">
         <f t="shared" si="2"/>
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
@@ -3360,20 +3364,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C106" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D106" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E106" s="1">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F106" s="1">
         <f t="shared" si="2"/>
-        <v>257</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
@@ -3382,20 +3386,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C107" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D107" s="1">
+        <v>23</v>
+      </c>
+      <c r="E107" s="1">
         <v>17</v>
-      </c>
-      <c r="E107" s="1">
-        <v>30</v>
       </c>
       <c r="F107" s="1">
         <f t="shared" si="2"/>
-        <v>338</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
@@ -3404,20 +3408,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" s="1">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E108" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F108" s="1">
         <f t="shared" si="2"/>
-        <v>129</v>
+        <v>338</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
@@ -3426,20 +3430,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" s="1">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1">
+        <v>20</v>
+      </c>
+      <c r="E109" s="1">
         <v>5</v>
-      </c>
-      <c r="D109" s="1">
-        <v>18</v>
-      </c>
-      <c r="E109" s="1">
-        <v>12</v>
       </c>
       <c r="F109" s="1">
         <f t="shared" si="2"/>
-        <v>200</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.4">
@@ -3448,20 +3452,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C110" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D110" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E110" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F110" s="1">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.4">
@@ -3470,20 +3474,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C111" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D111" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E111" s="1">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F111" s="1">
         <f t="shared" si="2"/>
-        <v>116</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.4">
@@ -3492,20 +3496,20 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C112" s="1">
+        <v>3</v>
+      </c>
+      <c r="D112" s="1">
+        <v>17</v>
+      </c>
+      <c r="E112" s="1">
         <v>4</v>
-      </c>
-      <c r="D112" s="1">
-        <v>20</v>
-      </c>
-      <c r="E112" s="1">
-        <v>3</v>
       </c>
       <c r="F112" s="1">
         <f t="shared" si="2"/>
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.4">
@@ -3514,20 +3518,20 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C113" s="1">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1">
         <v>20</v>
       </c>
-      <c r="D113" s="1">
-        <v>13</v>
-      </c>
       <c r="E113" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" s="1">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.4">
@@ -3536,10 +3540,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C114" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D114" s="1">
         <v>13</v>
@@ -3548,8 +3552,8 @@
         <v>2</v>
       </c>
       <c r="F114" s="1">
-        <f>4*C114+4*D114+9*E114</f>
-        <v>70</v>
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.4">
@@ -3558,20 +3562,20 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C115" s="1">
         <v>0</v>
       </c>
       <c r="D115" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1">
         <v>2</v>
       </c>
       <c r="F115" s="1">
         <f>4*C115+4*D115+9*E115</f>
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.4">
@@ -3580,20 +3584,20 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
       <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>7</v>
+      </c>
+      <c r="E116" s="1">
+        <v>2</v>
+      </c>
+      <c r="F116" s="1">
+        <f>4*C116+4*D116+9*E116</f>
         <v>46</v>
-      </c>
-      <c r="D116" s="1">
-        <v>5</v>
-      </c>
-      <c r="E116" s="1">
-        <v>1</v>
-      </c>
-      <c r="F116" s="1">
-        <f t="shared" ref="F116:F161" si="4">4*C116+4*D116+9*E116</f>
-        <v>213</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.4">
@@ -3602,755 +3606,755 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C117" s="1">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D117" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
       </c>
       <c r="F117" s="1">
+        <f t="shared" ref="F117:F162" si="4">4*C117+4*D117+9*E117</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A118" s="3">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C118" s="1">
+        <v>39</v>
+      </c>
+      <c r="D118" s="1">
+        <v>4</v>
+      </c>
+      <c r="E118" s="1">
+        <v>1</v>
+      </c>
+      <c r="F118" s="1">
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A118" s="3">
-        <f t="shared" si="3"/>
-        <v>117</v>
-      </c>
-      <c r="B118" s="1" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A119" s="3">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C119" s="1">
         <v>5</v>
       </c>
-      <c r="D118" s="1">
+      <c r="D119" s="1">
         <v>10</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E119" s="1">
         <v>5</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F119" s="1">
         <f t="shared" si="4"/>
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A119" s="3">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
-      <c r="B119" s="1" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A120" s="3">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C120" s="1">
         <v>3</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D120" s="1">
         <v>1</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E120" s="1">
         <v>0</v>
       </c>
-      <c r="F119" s="1">
+      <c r="F120" s="1">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A120" s="3">
-        <f t="shared" si="3"/>
-        <v>119</v>
-      </c>
-      <c r="B120" s="1" t="s">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A121" s="3">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C120" s="1">
+      <c r="C121" s="1">
         <v>4</v>
       </c>
-      <c r="D120" s="1">
+      <c r="D121" s="1">
         <v>13</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E121" s="1">
         <v>9</v>
       </c>
-      <c r="F120" s="1">
+      <c r="F121" s="1">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A121" s="3">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="B121" s="1" t="s">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A122" s="3">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C121" s="1">
+      <c r="C122" s="1">
         <v>6</v>
       </c>
-      <c r="D121" s="1">
+      <c r="D122" s="1">
         <v>85</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E122" s="1">
         <v>20</v>
       </c>
-      <c r="F121" s="1">
+      <c r="F122" s="1">
         <f t="shared" si="4"/>
         <v>544</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A122" s="3">
-        <f t="shared" si="3"/>
-        <v>121</v>
-      </c>
-      <c r="B122" s="1" t="s">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A123" s="3">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C122" s="1">
+      <c r="C123" s="1">
         <v>7</v>
       </c>
-      <c r="D122" s="1">
+      <c r="D123" s="1">
         <v>12</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E123" s="1">
         <v>9</v>
       </c>
-      <c r="F122" s="1">
+      <c r="F123" s="1">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A123" s="3">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
-      <c r="B123" s="1" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A124" s="3">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C123" s="1">
+      <c r="C124" s="1">
         <v>62</v>
       </c>
-      <c r="D123" s="1">
+      <c r="D124" s="1">
         <v>11</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E124" s="1">
         <v>27</v>
       </c>
-      <c r="F123" s="1">
+      <c r="F124" s="1">
         <f t="shared" si="4"/>
         <v>535</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A124" s="3">
-        <f t="shared" si="3"/>
-        <v>123</v>
-      </c>
-      <c r="B124" s="1" t="s">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A125" s="3">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C125" s="1">
         <v>50</v>
       </c>
-      <c r="D124" s="1">
+      <c r="D125" s="1">
         <v>8</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E125" s="1">
         <v>22</v>
       </c>
-      <c r="F124" s="1">
+      <c r="F125" s="1">
         <f t="shared" si="4"/>
         <v>430</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A125" s="3">
-        <f t="shared" si="3"/>
-        <v>124</v>
-      </c>
-      <c r="B125" s="1" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A126" s="3">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C126" s="1">
         <v>58</v>
       </c>
-      <c r="D125" s="1">
+      <c r="D126" s="1">
         <v>10</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E126" s="1">
         <v>25</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F126" s="1">
         <f t="shared" si="4"/>
         <v>497</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A126" s="3">
-        <f t="shared" si="3"/>
-        <v>125</v>
-      </c>
-      <c r="B126" s="1" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A127" s="3">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C127" s="1">
         <v>3</v>
       </c>
-      <c r="D126" s="1">
+      <c r="D127" s="1">
         <v>10</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E127" s="1">
         <v>10</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F127" s="1">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A127" s="3">
-        <f t="shared" si="3"/>
-        <v>126</v>
-      </c>
-      <c r="B127" s="1" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A128" s="3">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C128" s="1">
         <v>3</v>
       </c>
-      <c r="D127" s="1">
+      <c r="D128" s="1">
         <v>5</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E128" s="1">
         <v>5</v>
       </c>
-      <c r="F127" s="1">
+      <c r="F128" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A128" s="3">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="B128" s="1" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A129" s="3">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C129" s="1">
         <v>23</v>
       </c>
-      <c r="D128" s="1">
+      <c r="D129" s="1">
         <v>13</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E129" s="1">
         <v>17</v>
       </c>
-      <c r="F128" s="1">
+      <c r="F129" s="1">
         <f t="shared" si="4"/>
         <v>297</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A129" s="3">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
-      <c r="B129" s="1" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A130" s="3">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C130" s="1">
         <v>23</v>
       </c>
-      <c r="D129" s="1">
+      <c r="D130" s="1">
         <v>16</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E130" s="1">
         <v>16</v>
       </c>
-      <c r="F129" s="1">
+      <c r="F130" s="1">
         <f t="shared" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A130" s="3">
-        <f t="shared" si="3"/>
-        <v>129</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A131" s="3">
+        <f t="shared" si="3"/>
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C131" s="1">
         <v>26</v>
       </c>
-      <c r="D130" s="1">
+      <c r="D131" s="1">
         <v>3</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E131" s="1">
         <v>9</v>
       </c>
-      <c r="F130" s="1">
+      <c r="F131" s="1">
         <f t="shared" si="4"/>
         <v>197</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A131" s="3">
-        <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A132" s="3">
+        <f t="shared" si="3"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C132" s="1">
         <v>43</v>
       </c>
-      <c r="D131" s="1">
+      <c r="D132" s="1">
         <v>0</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E132" s="1">
         <v>0</v>
       </c>
-      <c r="F131" s="1">
+      <c r="F132" s="1">
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A132" s="3">
-        <f t="shared" si="3"/>
-        <v>131</v>
-      </c>
-      <c r="B132" s="1" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A133" s="3">
+        <f t="shared" si="3"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C133" s="1">
         <v>14</v>
       </c>
-      <c r="D132" s="1">
+      <c r="D133" s="1">
         <v>1</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E133" s="1">
         <v>1</v>
       </c>
-      <c r="F132" s="1">
+      <c r="F133" s="1">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A133" s="3">
-        <f t="shared" si="3"/>
-        <v>132</v>
-      </c>
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A134" s="3">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C134" s="1">
         <v>6</v>
       </c>
-      <c r="D133" s="1">
+      <c r="D134" s="1">
         <v>2</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E134" s="1">
         <v>6</v>
       </c>
-      <c r="F133" s="1">
+      <c r="F134" s="1">
         <f t="shared" si="4"/>
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A134" s="3">
-        <f t="shared" si="3"/>
-        <v>133</v>
-      </c>
-      <c r="B134" s="1" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A135" s="3">
+        <f t="shared" si="3"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C135" s="1">
         <v>1</v>
       </c>
-      <c r="D134" s="1">
+      <c r="D135" s="1">
         <v>5</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E135" s="1">
         <v>2</v>
       </c>
-      <c r="F134" s="1">
+      <c r="F135" s="1">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A135" s="3">
-        <f t="shared" si="3"/>
-        <v>134</v>
-      </c>
-      <c r="B135" s="1" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A136" s="3">
+        <f t="shared" si="3"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C136" s="1">
         <v>0</v>
       </c>
-      <c r="D135" s="1">
+      <c r="D136" s="1">
         <v>8</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E136" s="1">
         <v>5</v>
       </c>
-      <c r="F135" s="1">
+      <c r="F136" s="1">
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A136" s="3">
-        <f t="shared" si="3"/>
-        <v>135</v>
-      </c>
-      <c r="B136" s="1" t="s">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A137" s="3">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C137" s="1">
         <v>4</v>
       </c>
-      <c r="D136" s="1">
+      <c r="D137" s="1">
         <v>0</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E137" s="1">
         <v>1</v>
       </c>
-      <c r="F136" s="1">
+      <c r="F137" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A137" s="3">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="B137" s="1" t="s">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A138" s="3">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C138" s="1">
         <v>70</v>
       </c>
-      <c r="D137" s="1">
+      <c r="D138" s="1">
         <v>6</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E138" s="1">
         <v>23</v>
       </c>
-      <c r="F137" s="1">
+      <c r="F138" s="1">
         <f t="shared" si="4"/>
         <v>511</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A138" s="3">
-        <f t="shared" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="B138" s="1" t="s">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A139" s="3">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C139" s="1">
         <v>23</v>
       </c>
-      <c r="D138" s="1">
+      <c r="D139" s="1">
         <v>3</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E139" s="1">
         <v>11</v>
       </c>
-      <c r="F138" s="1">
+      <c r="F139" s="1">
         <f t="shared" si="4"/>
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A139" s="3">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A140" s="3">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C140" s="1">
         <v>52</v>
       </c>
-      <c r="D139" s="1">
+      <c r="D140" s="1">
         <v>4</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E140" s="1">
         <v>10</v>
       </c>
-      <c r="F139" s="1">
+      <c r="F140" s="1">
         <f t="shared" si="4"/>
         <v>314</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A140" s="3">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="B140" s="1" t="s">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A141" s="3">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C141" s="1">
         <v>0</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D141" s="1">
         <v>2</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E141" s="1">
         <v>0</v>
       </c>
-      <c r="F140" s="1">
+      <c r="F141" s="1">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A141" s="3">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="B141" s="1" t="s">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A142" s="3">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C142" s="1">
         <v>0</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D142" s="1">
         <v>1</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E142" s="1">
         <v>0</v>
       </c>
-      <c r="F141" s="1">
+      <c r="F142" s="1">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A142" s="3">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="B142" s="1" t="s">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A143" s="3">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C143" s="1">
         <v>2</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D143" s="1">
         <v>2</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E143" s="1">
         <v>1</v>
       </c>
-      <c r="F142" s="1">
+      <c r="F143" s="1">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A143" s="3">
-        <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="B143" s="1" t="s">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A144" s="3">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C144" s="1">
         <v>5</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D144" s="1">
         <v>3</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E144" s="1">
         <v>3</v>
       </c>
-      <c r="F143" s="1">
+      <c r="F144" s="1">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A144" s="3">
-        <f t="shared" si="3"/>
-        <v>143</v>
-      </c>
-      <c r="B144" s="1" t="s">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A145" s="3">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C145" s="1">
         <v>3</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D145" s="1">
         <v>2</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E145" s="1">
         <v>0</v>
       </c>
-      <c r="F144" s="1">
+      <c r="F145" s="1">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A145" s="3">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="B145" s="1" t="s">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A146" s="3">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C146" s="1">
         <v>3</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D146" s="1">
         <v>7</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E146" s="1">
         <v>5</v>
       </c>
-      <c r="F145" s="1">
+      <c r="F146" s="1">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A146" s="3">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="B146" s="1" t="s">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A147" s="3">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C147" s="1">
         <v>12</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D147" s="1">
         <v>4</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E147" s="1">
         <v>4</v>
       </c>
-      <c r="F146" s="1">
+      <c r="F147" s="1">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A147" s="3">
-        <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="B147" s="1" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A148" s="3">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C148" s="1">
         <v>9</v>
       </c>
-      <c r="D147" s="1">
+      <c r="D148" s="1">
         <v>0</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E148" s="1">
         <v>0</v>
       </c>
-      <c r="F147" s="1">
+      <c r="F148" s="1">
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A148" s="3">
-        <f t="shared" si="3"/>
-        <v>147</v>
-      </c>
-      <c r="B148" s="1" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A149" s="3">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C149" s="1">
         <v>1</v>
       </c>
-      <c r="D148" s="1">
+      <c r="D149" s="1">
         <v>3</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E149" s="1">
         <v>2</v>
       </c>
-      <c r="F148" s="1">
+      <c r="F149" s="1">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A149" s="3">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="B149" s="1" t="s">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A150" s="3">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C150" s="1">
         <v>2</v>
       </c>
-      <c r="D149" s="1">
+      <c r="D150" s="1">
         <v>4</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E150" s="1">
         <v>1</v>
       </c>
-      <c r="F149" s="1">
+      <c r="F150" s="1">
         <f t="shared" si="4"/>
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A150" s="3">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C150" s="1">
-        <v>0</v>
-      </c>
-      <c r="D150" s="1">
-        <v>3</v>
-      </c>
-      <c r="E150" s="1">
-        <v>1</v>
-      </c>
-      <c r="F150" s="1">
-        <f t="shared" si="4"/>
-        <v>21</v>
-      </c>
-    </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="3">
         <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C151" s="1">
         <v>0</v>
@@ -4372,20 +4376,20 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D152" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E152" s="1">
         <v>1</v>
       </c>
       <c r="F152" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.4">
@@ -4394,20 +4398,20 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="C153" s="1">
+        <v>1</v>
+      </c>
+      <c r="D153" s="1">
         <v>0</v>
       </c>
-      <c r="D153" s="1">
-        <v>158</v>
-      </c>
       <c r="E153" s="1">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="F153" s="1">
         <f t="shared" si="4"/>
-        <v>902</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.4">
@@ -4416,20 +4420,20 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C154" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D154" s="1">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="E154" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F154" s="1">
         <f t="shared" si="4"/>
-        <v>178</v>
+        <v>902</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.4">
@@ -4438,20 +4442,20 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C155" s="1">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="D155" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E155" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F155" s="1">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.4">
@@ -4460,10 +4464,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>84</v>
+        <v>165</v>
       </c>
       <c r="C156" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="D156" s="1">
         <v>0</v>
@@ -4473,7 +4477,7 @@
       </c>
       <c r="F156" s="1">
         <f t="shared" si="4"/>
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.4">
@@ -4482,20 +4486,20 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="C157" s="1">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E157" s="1">
         <v>0</v>
       </c>
       <c r="F157" s="1">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.4">
@@ -4504,7 +4508,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C158" s="1">
         <v>22</v>
@@ -4526,20 +4530,20 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="C159" s="1">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D159" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E159" s="1">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F159" s="1">
         <f t="shared" si="4"/>
-        <v>252</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.4">
@@ -4548,20 +4552,20 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="C160" s="1">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D160" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E160" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F160" s="1">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.4">
@@ -4570,18 +4574,40 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C161" s="1">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D161" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E161" s="1">
         <v>0</v>
       </c>
       <c r="F161" s="1">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A162" s="3">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C162" s="1">
+        <v>35</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
